--- a/uploads/Export Stats Match - ASBH - CAR.xlsx
+++ b/uploads/Export Stats Match - ASBH - CAR.xlsx
@@ -1,359 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
-  </bookViews>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
-  <si>
-    <t xml:space="preserve">Total stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Jeu au pied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu au pied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Perte de balle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perte de balle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Faute règlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faute règlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Faute technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faute technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Plaquage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaquage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Plaquage manqué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaquage manqué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Franchissement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franchissement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Récupération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Récupération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Lanceur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanceur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Sauteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Contreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Pousseur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pousseur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Soutien Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soutien Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Porteur de balle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porteur de balle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Passeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Contest Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contest Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total botteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non renseigné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perte du ballon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sortie du ballon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injouable (perte)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Négatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passe manquée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En avant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu au sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hors jeu de ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brutalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pénalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPP Concédé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Touche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu Courant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauvaise Passe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mêlée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPF Concédé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Récupérateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mêlée concédée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPP Obtenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPF Obtenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injouable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joueur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. OLIVIER Tristan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. RIBERRO CARDOSSO  Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. JIMENEZ Ilan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. SERRE Nathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. YATTOU Themis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. CHOLLET Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. MERLET Luka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. PUERTAS Tom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. DI MEGLIO Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. BRUNO Kyllian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. RIVOLIER Kéri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. KALAUTA Jeremy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. ARNAUD-HENEMAN Ilan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. DI MEGLIO Mattei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. BOSSO Nathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. VALLE Victor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. RAOUX Théo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. DASA Ishaq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. BLANC Nathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20. TORRAL Mattéo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. RACCO Raphael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. DURAND Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. CHATTI Farrel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Total stats</t>
+  </si>
+  <si>
+    <t>Total Jeu au pied</t>
+  </si>
+  <si>
+    <t>Jeu au pied</t>
+  </si>
+  <si>
+    <t>Total Perte de balle</t>
+  </si>
+  <si>
+    <t>Perte de balle</t>
+  </si>
+  <si>
+    <t>Total Faute règlement</t>
+  </si>
+  <si>
+    <t>Faute règlement</t>
+  </si>
+  <si>
+    <t>Total Faute technique</t>
+  </si>
+  <si>
+    <t>Faute technique</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Total Plaquage</t>
+  </si>
+  <si>
+    <t>Plaquage</t>
+  </si>
+  <si>
+    <t>Total Plaquage manqué</t>
+  </si>
+  <si>
+    <t>Plaquage manqué</t>
+  </si>
+  <si>
+    <t>Total Franchissement</t>
+  </si>
+  <si>
+    <t>Franchissement</t>
+  </si>
+  <si>
+    <t>Total Récupération</t>
+  </si>
+  <si>
+    <t>Récupération</t>
+  </si>
+  <si>
+    <t>Total Assistant</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Total Lanceur</t>
+  </si>
+  <si>
+    <t>Lanceur</t>
+  </si>
+  <si>
+    <t>Total Sauteur</t>
+  </si>
+  <si>
+    <t>Sauteur</t>
+  </si>
+  <si>
+    <t>Total Contreur</t>
+  </si>
+  <si>
+    <t>Contreur</t>
+  </si>
+  <si>
+    <t>Total Pousseur</t>
+  </si>
+  <si>
+    <t>Pousseur</t>
+  </si>
+  <si>
+    <t>Total Soutien Off</t>
+  </si>
+  <si>
+    <t>Soutien Off</t>
+  </si>
+  <si>
+    <t>Total Porteur de balle</t>
+  </si>
+  <si>
+    <t>Porteur de balle</t>
+  </si>
+  <si>
+    <t>Total Passeur</t>
+  </si>
+  <si>
+    <t>Passeur</t>
+  </si>
+  <si>
+    <t>Total Contest Air</t>
+  </si>
+  <si>
+    <t>Contest Air</t>
+  </si>
+  <si>
+    <t>Total botteur</t>
+  </si>
+  <si>
+    <t>botteur</t>
+  </si>
+  <si>
+    <t>Non renseigné</t>
+  </si>
+  <si>
+    <t>Perte du ballon</t>
+  </si>
+  <si>
+    <t>Sortie du ballon</t>
+  </si>
+  <si>
+    <t>Injouable (perte)</t>
+  </si>
+  <si>
+    <t>Positif</t>
+  </si>
+  <si>
+    <t>Négatif</t>
+  </si>
+  <si>
+    <t>Passe manquée</t>
+  </si>
+  <si>
+    <t>En avant</t>
+  </si>
+  <si>
+    <t>Jeu au sol</t>
+  </si>
+  <si>
+    <t>Hors jeu de ligne</t>
+  </si>
+  <si>
+    <t>Brutalité</t>
+  </si>
+  <si>
+    <t>Pénalité</t>
+  </si>
+  <si>
+    <t>CPP Concédé</t>
+  </si>
+  <si>
+    <t>Touche</t>
+  </si>
+  <si>
+    <t>Jeu Courant</t>
+  </si>
+  <si>
+    <t>Mauvaise Passe</t>
+  </si>
+  <si>
+    <t>Avantage</t>
+  </si>
+  <si>
+    <t>Mêlée</t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>CPF Concédé</t>
+  </si>
+  <si>
+    <t>Essai</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Marque</t>
+  </si>
+  <si>
+    <t>Récupérateur</t>
+  </si>
+  <si>
+    <t>Mêlée concédée</t>
+  </si>
+  <si>
+    <t>Neutre</t>
+  </si>
+  <si>
+    <t>CPP Obtenu</t>
+  </si>
+  <si>
+    <t>CPF Obtenu</t>
+  </si>
+  <si>
+    <t>Injouable</t>
+  </si>
+  <si>
+    <t>Gagne</t>
+  </si>
+  <si>
+    <t>Perdu</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>1. OLIVIER T.</t>
+  </si>
+  <si>
+    <t>2. RIBEIRO CARDOSO T.</t>
+  </si>
+  <si>
+    <t>3. JIMENEZ I.</t>
+  </si>
+  <si>
+    <t>4. SERRES N.</t>
+  </si>
+  <si>
+    <t>5. YATTOU T.</t>
+  </si>
+  <si>
+    <t>6. CHOLLET L.</t>
+  </si>
+  <si>
+    <t>7. MERLET L.</t>
+  </si>
+  <si>
+    <t>8. PUERTAS T.</t>
+  </si>
+  <si>
+    <t>9. DI MEGLIO L.</t>
+  </si>
+  <si>
+    <t>10. BRUNO K.</t>
+  </si>
+  <si>
+    <t>11. RIVOLIER K.</t>
+  </si>
+  <si>
+    <t>12. KALAUTA J.</t>
+  </si>
+  <si>
+    <t>13. ARNAUD HENEMAN Y.</t>
+  </si>
+  <si>
+    <t>14. DI MEGLIO M.</t>
+  </si>
+  <si>
+    <t>15. BOSSO N.</t>
+  </si>
+  <si>
+    <t>16. VALLE V.</t>
+  </si>
+  <si>
+    <t>17. RAOUX T.</t>
+  </si>
+  <si>
+    <t>18. DASA I.</t>
+  </si>
+  <si>
+    <t>19. BLANC N.</t>
+  </si>
+  <si>
+    <t>20. M T.</t>
+  </si>
+  <si>
+    <t>21. RACAUD-ALBOUY R.</t>
+  </si>
+  <si>
+    <t>22. DURAND M.</t>
+  </si>
+  <si>
+    <t>23. CHATTI F.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8.25"/>
       <color rgb="FF282828"/>
       <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -366,121 +326,103 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
-        <bgColor rgb="FFE2E2E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFF00000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8064A2"/>
-        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF21AB73"/>
-        <bgColor rgb="FF339933"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDA2200"/>
-        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2E2E2"/>
-        <bgColor rgb="FFCDE6F7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF339933"/>
-        <bgColor rgb="FF21AB73"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFBA47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF00000"/>
-        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBA47"/>
-        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4474C4"/>
-        <bgColor rgb="FF31859B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF4474C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF31859B"/>
-        <bgColor rgb="FF4474C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCDE6F7"/>
-        <bgColor rgb="FFE2E2E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF0F0F0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -496,280 +438,232 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFF00000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF31859B"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF0F0F0"/>
-      <rgbColor rgb="FFCDE6F7"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE2E2E2"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF21AB73"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFBA47"/>
-      <rgbColor rgb="FF4474C4"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF8064A2"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339933"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFDA2200"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF282828"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -777,24 +671,33 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -807,7 +710,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -817,13 +726,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -831,6 +742,7 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -838,44 +750,164 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DP27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="2" style="0" width="4"/>
+    <col min="1" max="1" width="19.14" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4" customWidth="1"/>
+    <col min="17" max="17" width="4" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="26" max="26" width="4" customWidth="1"/>
+    <col min="27" max="27" width="4" customWidth="1"/>
+    <col min="28" max="28" width="4" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="4" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="4" customWidth="1"/>
+    <col min="34" max="34" width="4" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="36" width="4" customWidth="1"/>
+    <col min="37" max="37" width="4" customWidth="1"/>
+    <col min="38" max="38" width="4" customWidth="1"/>
+    <col min="39" max="39" width="4" customWidth="1"/>
+    <col min="40" max="40" width="4" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="4" customWidth="1"/>
+    <col min="43" max="43" width="4" customWidth="1"/>
+    <col min="44" max="44" width="4" customWidth="1"/>
+    <col min="45" max="45" width="4" customWidth="1"/>
+    <col min="46" max="46" width="4" customWidth="1"/>
+    <col min="47" max="47" width="4" customWidth="1"/>
+    <col min="48" max="48" width="4" customWidth="1"/>
+    <col min="49" max="49" width="4" customWidth="1"/>
+    <col min="50" max="50" width="4" customWidth="1"/>
+    <col min="51" max="51" width="4" customWidth="1"/>
+    <col min="52" max="52" width="4" customWidth="1"/>
+    <col min="53" max="53" width="4" customWidth="1"/>
+    <col min="54" max="54" width="4" customWidth="1"/>
+    <col min="55" max="55" width="4" customWidth="1"/>
+    <col min="56" max="56" width="4" customWidth="1"/>
+    <col min="57" max="57" width="4" customWidth="1"/>
+    <col min="58" max="58" width="4" customWidth="1"/>
+    <col min="59" max="59" width="4" customWidth="1"/>
+    <col min="60" max="60" width="4" customWidth="1"/>
+    <col min="61" max="61" width="4" customWidth="1"/>
+    <col min="62" max="62" width="4" customWidth="1"/>
+    <col min="63" max="63" width="4" customWidth="1"/>
+    <col min="64" max="64" width="4" customWidth="1"/>
+    <col min="65" max="65" width="4" customWidth="1"/>
+    <col min="66" max="66" width="4" customWidth="1"/>
+    <col min="67" max="67" width="4" customWidth="1"/>
+    <col min="68" max="68" width="4" customWidth="1"/>
+    <col min="69" max="69" width="4" customWidth="1"/>
+    <col min="70" max="70" width="4" customWidth="1"/>
+    <col min="71" max="71" width="4" customWidth="1"/>
+    <col min="72" max="72" width="4" customWidth="1"/>
+    <col min="73" max="73" width="4" customWidth="1"/>
+    <col min="74" max="74" width="4" customWidth="1"/>
+    <col min="75" max="75" width="4" customWidth="1"/>
+    <col min="76" max="76" width="4" customWidth="1"/>
+    <col min="77" max="77" width="4" customWidth="1"/>
+    <col min="78" max="78" width="4" customWidth="1"/>
+    <col min="79" max="79" width="4" customWidth="1"/>
+    <col min="80" max="80" width="4" customWidth="1"/>
+    <col min="81" max="81" width="4" customWidth="1"/>
+    <col min="82" max="82" width="4" customWidth="1"/>
+    <col min="83" max="83" width="4" customWidth="1"/>
+    <col min="84" max="84" width="4" customWidth="1"/>
+    <col min="85" max="85" width="4" customWidth="1"/>
+    <col min="86" max="86" width="4" customWidth="1"/>
+    <col min="87" max="87" width="4" customWidth="1"/>
+    <col min="88" max="88" width="4" customWidth="1"/>
+    <col min="89" max="89" width="4" customWidth="1"/>
+    <col min="90" max="90" width="4" customWidth="1"/>
+    <col min="91" max="91" width="4" customWidth="1"/>
+    <col min="92" max="92" width="4" customWidth="1"/>
+    <col min="93" max="93" width="4" customWidth="1"/>
+    <col min="94" max="94" width="4" customWidth="1"/>
+    <col min="95" max="95" width="4" customWidth="1"/>
+    <col min="96" max="96" width="4" customWidth="1"/>
+    <col min="97" max="97" width="4" customWidth="1"/>
+    <col min="98" max="98" width="4" customWidth="1"/>
+    <col min="99" max="99" width="4" customWidth="1"/>
+    <col min="100" max="100" width="4" customWidth="1"/>
+    <col min="101" max="101" width="4" customWidth="1"/>
+    <col min="102" max="102" width="4" customWidth="1"/>
+    <col min="103" max="103" width="4" customWidth="1"/>
+    <col min="104" max="104" width="4" customWidth="1"/>
+    <col min="105" max="105" width="4" customWidth="1"/>
+    <col min="106" max="106" width="4" customWidth="1"/>
+    <col min="107" max="107" width="4" customWidth="1"/>
+    <col min="108" max="108" width="4" customWidth="1"/>
+    <col min="109" max="109" width="4" customWidth="1"/>
+    <col min="110" max="110" width="4" customWidth="1"/>
+    <col min="111" max="111" width="4" customWidth="1"/>
+    <col min="112" max="112" width="4" customWidth="1"/>
+    <col min="113" max="113" width="4" customWidth="1"/>
+    <col min="114" max="114" width="4" customWidth="1"/>
+    <col min="115" max="115" width="4" customWidth="1"/>
+    <col min="116" max="116" width="4" customWidth="1"/>
+    <col min="117" max="117" width="4" customWidth="1"/>
+    <col min="118" max="118" width="4" customWidth="1"/>
+    <col min="119" max="119" width="4" customWidth="1"/>
+    <col min="120" max="120" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c t="s" r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c t="s" r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="D1" s="2">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
@@ -883,19 +915,19 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c t="s" r="J1" s="1">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c t="s" r="K1" s="2">
         <v>4</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c t="s" r="O1" s="1">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c t="s" r="P1" s="2">
         <v>6</v>
       </c>
       <c r="Q1" s="2"/>
@@ -903,10 +935,10 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="1" t="s">
+      <c t="s" r="V1" s="1">
         <v>7</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c t="s" r="W1" s="2">
         <v>8</v>
       </c>
       <c r="X1" s="2"/>
@@ -917,10 +949,10 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="1" t="s">
+      <c t="s" r="AF1" s="1">
         <v>9</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c t="s" r="AG1" s="2">
         <v>10</v>
       </c>
       <c r="AH1" s="2"/>
@@ -928,10 +960,10 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
-      <c r="AM1" s="1" t="s">
+      <c t="s" r="AM1" s="1">
         <v>11</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c t="s" r="AN1" s="2">
         <v>12</v>
       </c>
       <c r="AO1" s="2"/>
@@ -941,39 +973,39 @@
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
-      <c r="AV1" s="1" t="s">
+      <c t="s" r="AV1" s="1">
         <v>13</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c t="s" r="AW1" s="2">
         <v>14</v>
       </c>
       <c r="AX1" s="2"/>
-      <c r="AY1" s="1" t="s">
+      <c t="s" r="AY1" s="1">
         <v>15</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c t="s" r="AZ1" s="2">
         <v>16</v>
       </c>
       <c r="BA1" s="2"/>
       <c r="BB1" s="2"/>
-      <c r="BC1" s="1" t="s">
+      <c t="s" r="BC1" s="1">
         <v>17</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c t="s" r="BD1" s="2">
         <v>18</v>
       </c>
       <c r="BE1" s="2"/>
-      <c r="BF1" s="1" t="s">
+      <c t="s" r="BF1" s="1">
         <v>19</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c t="s" r="BG1" s="2">
         <v>20</v>
       </c>
       <c r="BH1" s="2"/>
-      <c r="BI1" s="1" t="s">
+      <c t="s" r="BI1" s="1">
         <v>21</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c t="s" r="BJ1" s="2">
         <v>22</v>
       </c>
       <c r="BK1" s="2"/>
@@ -981,10 +1013,10 @@
       <c r="BM1" s="2"/>
       <c r="BN1" s="2"/>
       <c r="BO1" s="2"/>
-      <c r="BP1" s="1" t="s">
+      <c t="s" r="BP1" s="1">
         <v>23</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c t="s" r="BQ1" s="2">
         <v>24</v>
       </c>
       <c r="BR1" s="2"/>
@@ -993,17 +1025,17 @@
       <c r="BU1" s="2"/>
       <c r="BV1" s="2"/>
       <c r="BW1" s="2"/>
-      <c r="BX1" s="1" t="s">
+      <c t="s" r="BX1" s="1">
         <v>25</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c t="s" r="BY1" s="2">
         <v>26</v>
       </c>
       <c r="BZ1" s="2"/>
-      <c r="CA1" s="1" t="s">
+      <c t="s" r="CA1" s="1">
         <v>27</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c t="s" r="CB1" s="2">
         <v>28</v>
       </c>
       <c r="CC1" s="2"/>
@@ -1013,10 +1045,10 @@
       <c r="CG1" s="2"/>
       <c r="CH1" s="2"/>
       <c r="CI1" s="2"/>
-      <c r="CJ1" s="1" t="s">
+      <c t="s" r="CJ1" s="1">
         <v>29</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c t="s" r="CK1" s="2">
         <v>30</v>
       </c>
       <c r="CL1" s="2"/>
@@ -1026,10 +1058,10 @@
       <c r="CP1" s="2"/>
       <c r="CQ1" s="2"/>
       <c r="CR1" s="2"/>
-      <c r="CS1" s="1" t="s">
+      <c t="s" r="CS1" s="1">
         <v>31</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c t="s" r="CT1" s="2">
         <v>32</v>
       </c>
       <c r="CU1" s="2"/>
@@ -1039,18 +1071,18 @@
       <c r="CY1" s="2"/>
       <c r="CZ1" s="2"/>
       <c r="DA1" s="2"/>
-      <c r="DB1" s="1" t="s">
+      <c t="s" r="DB1" s="1">
         <v>33</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c t="s" r="DC1" s="2">
         <v>34</v>
       </c>
       <c r="DD1" s="2"/>
       <c r="DE1" s="2"/>
-      <c r="DF1" s="1" t="s">
+      <c t="s" r="DF1" s="1">
         <v>35</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c t="s" r="DG1" s="2">
         <v>36</v>
       </c>
       <c r="DH1" s="2"/>
@@ -1058,336 +1090,336 @@
       <c r="DJ1" s="2"/>
       <c r="DK1" s="2"/>
       <c r="DL1" s="2"/>
-      <c r="DM1" s="1" t="s">
+      <c t="s" r="DM1" s="1">
         <v>37</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c t="s" r="DN1" s="2">
         <v>38</v>
       </c>
       <c r="DO1" s="2"/>
       <c r="DP1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="59.25" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c t="s" r="D2" s="1">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c t="s" r="E2" s="3">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c t="s" r="F2" s="4">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c t="s" r="G2" s="5">
         <v>42</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c t="s" r="H2" s="6">
         <v>43</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c t="s" r="I2" s="7">
         <v>44</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="8" t="s">
+      <c t="s" r="K2" s="8">
         <v>45</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c t="s" r="L2" s="8">
         <v>46</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c t="s" r="M2" s="3">
         <v>40</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c t="s" r="N2" s="7">
         <v>44</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="8" t="s">
+      <c t="s" r="P2" s="8">
         <v>47</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c t="s" r="Q2" s="8">
         <v>48</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c t="s" r="R2" s="8">
         <v>49</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c t="s" r="S2" s="8">
         <v>50</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c t="s" r="T2" s="9">
         <v>51</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c t="s" r="U2" s="7">
         <v>44</v>
       </c>
       <c r="V2" s="1"/>
-      <c r="W2" s="8" t="s">
+      <c t="s" r="W2" s="8">
         <v>52</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c t="s" r="X2" s="8">
         <v>53</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c t="s" r="Y2" s="8">
         <v>46</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c t="s" r="Z2" s="8">
         <v>54</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c t="s" r="AA2" s="8">
         <v>55</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c t="s" r="AB2" s="8">
         <v>56</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c t="s" r="AC2" s="10">
         <v>57</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c t="s" r="AD2" s="11">
         <v>58</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c t="s" r="AE2" s="7">
         <v>44</v>
       </c>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="8" t="s">
+      <c t="s" r="AG2" s="8">
         <v>59</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c t="s" r="AH2" s="8">
         <v>60</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c t="s" r="AI2" s="4">
         <v>41</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c t="s" r="AJ2" s="12">
         <v>61</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c t="s" r="AK2" s="6">
         <v>43</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c t="s" r="AL2" s="7">
         <v>44</v>
       </c>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="1" t="s">
+      <c t="s" r="AN2" s="1">
         <v>39</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c t="s" r="AO2" s="8">
         <v>62</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c t="s" r="AP2" s="3">
         <v>40</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c t="s" r="AQ2" s="9">
         <v>51</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c t="s" r="AR2" s="13">
         <v>63</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c t="s" r="AS2" s="4">
         <v>41</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c t="s" r="AT2" s="6">
         <v>43</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c t="s" r="AU2" s="7">
         <v>44</v>
       </c>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1" t="s">
+      <c t="s" r="AW2" s="1">
         <v>39</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c t="s" r="AX2" s="7">
         <v>44</v>
       </c>
       <c r="AY2" s="1"/>
-      <c r="AZ2" s="1" t="s">
+      <c t="s" r="AZ2" s="1">
         <v>39</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c t="s" r="BA2" s="12">
         <v>61</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c t="s" r="BB2" s="6">
         <v>43</v>
       </c>
       <c r="BC2" s="1"/>
-      <c r="BD2" s="1" t="s">
+      <c t="s" r="BD2" s="1">
         <v>39</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c t="s" r="BE2" s="6">
         <v>43</v>
       </c>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="s">
+      <c t="s" r="BG2" s="1">
         <v>39</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c t="s" r="BH2" s="6">
         <v>43</v>
       </c>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="10" t="s">
+      <c t="s" r="BJ2" s="10">
         <v>57</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c t="s" r="BK2" s="3">
         <v>40</v>
       </c>
-      <c r="BL2" s="13" t="s">
+      <c t="s" r="BL2" s="13">
         <v>63</v>
       </c>
-      <c r="BM2" s="11" t="s">
+      <c t="s" r="BM2" s="11">
         <v>58</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c t="s" r="BN2" s="6">
         <v>43</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c t="s" r="BO2" s="7">
         <v>44</v>
       </c>
       <c r="BP2" s="1"/>
-      <c r="BQ2" s="10" t="s">
+      <c t="s" r="BQ2" s="10">
         <v>57</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c t="s" r="BR2" s="3">
         <v>40</v>
       </c>
-      <c r="BS2" s="13" t="s">
+      <c t="s" r="BS2" s="13">
         <v>63</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c t="s" r="BT2" s="11">
         <v>58</v>
       </c>
-      <c r="BU2" s="6" t="s">
+      <c t="s" r="BU2" s="6">
         <v>43</v>
       </c>
-      <c r="BV2" s="14" t="s">
+      <c t="s" r="BV2" s="14">
         <v>64</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c t="s" r="BW2" s="7">
         <v>44</v>
       </c>
       <c r="BX2" s="1"/>
-      <c r="BY2" s="3" t="s">
+      <c t="s" r="BY2" s="3">
         <v>40</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c t="s" r="BZ2" s="6">
         <v>43</v>
       </c>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="10" t="s">
+      <c t="s" r="CB2" s="10">
         <v>57</v>
       </c>
-      <c r="CC2" s="9" t="s">
+      <c t="s" r="CC2" s="9">
         <v>51</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c t="s" r="CD2" s="15">
         <v>65</v>
       </c>
-      <c r="CE2" s="16" t="s">
+      <c t="s" r="CE2" s="16">
         <v>66</v>
       </c>
-      <c r="CF2" s="17" t="s">
+      <c t="s" r="CF2" s="17">
         <v>67</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c t="s" r="CG2" s="6">
         <v>43</v>
       </c>
-      <c r="CH2" s="14" t="s">
+      <c t="s" r="CH2" s="14">
         <v>64</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c t="s" r="CI2" s="7">
         <v>44</v>
       </c>
       <c r="CJ2" s="1"/>
-      <c r="CK2" s="1" t="s">
+      <c t="s" r="CK2" s="1">
         <v>39</v>
       </c>
-      <c r="CL2" s="10" t="s">
+      <c t="s" r="CL2" s="10">
         <v>57</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c t="s" r="CM2" s="3">
         <v>40</v>
       </c>
-      <c r="CN2" s="9" t="s">
+      <c t="s" r="CN2" s="9">
         <v>51</v>
       </c>
-      <c r="CO2" s="15" t="s">
+      <c t="s" r="CO2" s="15">
         <v>65</v>
       </c>
-      <c r="CP2" s="6" t="s">
+      <c t="s" r="CP2" s="6">
         <v>43</v>
       </c>
-      <c r="CQ2" s="14" t="s">
+      <c t="s" r="CQ2" s="14">
         <v>64</v>
       </c>
-      <c r="CR2" s="7" t="s">
+      <c t="s" r="CR2" s="7">
         <v>44</v>
       </c>
       <c r="CS2" s="1"/>
-      <c r="CT2" s="1" t="s">
+      <c t="s" r="CT2" s="1">
         <v>39</v>
       </c>
-      <c r="CU2" s="10" t="s">
+      <c t="s" r="CU2" s="10">
         <v>57</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c t="s" r="CV2" s="3">
         <v>40</v>
       </c>
-      <c r="CW2" s="9" t="s">
+      <c t="s" r="CW2" s="9">
         <v>51</v>
       </c>
-      <c r="CX2" s="15" t="s">
+      <c t="s" r="CX2" s="15">
         <v>65</v>
       </c>
-      <c r="CY2" s="6" t="s">
+      <c t="s" r="CY2" s="6">
         <v>43</v>
       </c>
-      <c r="CZ2" s="14" t="s">
+      <c t="s" r="CZ2" s="14">
         <v>64</v>
       </c>
-      <c r="DA2" s="7" t="s">
+      <c t="s" r="DA2" s="7">
         <v>44</v>
       </c>
       <c r="DB2" s="1"/>
-      <c r="DC2" s="10" t="s">
+      <c t="s" r="DC2" s="10">
         <v>57</v>
       </c>
-      <c r="DD2" s="15" t="s">
+      <c t="s" r="DD2" s="15">
         <v>65</v>
       </c>
-      <c r="DE2" s="6" t="s">
+      <c t="s" r="DE2" s="6">
         <v>43</v>
       </c>
       <c r="DF2" s="1"/>
-      <c r="DG2" s="1" t="s">
+      <c t="s" r="DG2" s="1">
         <v>68</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c t="s" r="DH2" s="1">
         <v>69</v>
       </c>
-      <c r="DI2" s="10" t="s">
+      <c t="s" r="DI2" s="10">
         <v>57</v>
       </c>
-      <c r="DJ2" s="3" t="s">
+      <c t="s" r="DJ2" s="3">
         <v>40</v>
       </c>
-      <c r="DK2" s="6" t="s">
+      <c t="s" r="DK2" s="6">
         <v>43</v>
       </c>
-      <c r="DL2" s="7" t="s">
+      <c t="s" r="DL2" s="7">
         <v>44</v>
       </c>
       <c r="DM2" s="1"/>
-      <c r="DN2" s="10" t="s">
+      <c t="s" r="DN2" s="10">
         <v>57</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c t="s" r="DO2" s="3">
         <v>40</v>
       </c>
-      <c r="DP2" s="6" t="s">
+      <c t="s" r="DP2" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c t="s" r="A3" s="2">
         <v>70</v>
       </c>
       <c r="B3" s="1"/>
@@ -1510,373 +1542,373 @@
       <c r="DO3" s="3"/>
       <c r="DP3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c t="s" r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="18">
         <v>560</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="18">
         <v>17</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="18">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="18">
         <v>6</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="18">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18" t="n">
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
         <v>13</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="18">
         <v>4</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="18">
         <v>4</v>
       </c>
-      <c r="K4" s="18" t="n">
+      <c r="K4" s="18">
         <v>3</v>
       </c>
-      <c r="L4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="18" t="n">
+      <c r="L4" s="18">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
         <v>4</v>
       </c>
-      <c r="N4" s="18" t="n">
+      <c r="N4" s="18">
         <v>4</v>
       </c>
-      <c r="O4" s="18" t="n">
+      <c r="O4" s="18">
         <v>9</v>
       </c>
-      <c r="P4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" s="18" t="n">
+      <c r="P4" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18">
+        <v>2</v>
+      </c>
+      <c r="S4" s="18">
+        <v>2</v>
+      </c>
+      <c r="T4" s="18">
         <v>9</v>
       </c>
-      <c r="U4" s="18" t="n">
+      <c r="U4" s="18">
         <v>9</v>
       </c>
-      <c r="V4" s="18" t="n">
+      <c r="V4" s="18">
         <v>5</v>
       </c>
-      <c r="W4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="18" t="n">
+      <c r="W4" s="18">
+        <v>1</v>
+      </c>
+      <c r="X4" s="18">
         <v>4</v>
       </c>
-      <c r="Y4" s="18" t="n">
+      <c r="Y4" s="18">
         <v>3</v>
       </c>
-      <c r="Z4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="18" t="n">
+      <c r="Z4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="18">
         <v>3</v>
       </c>
-      <c r="AC4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="18" t="n">
+      <c r="AC4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="18">
         <v>4</v>
       </c>
-      <c r="AE4" s="18" t="n">
+      <c r="AE4" s="18">
         <v>5</v>
       </c>
-      <c r="AF4" s="18" t="n">
+      <c r="AF4" s="18">
         <v>12</v>
       </c>
-      <c r="AG4" s="18" t="n">
+      <c r="AG4" s="18">
         <v>6</v>
       </c>
-      <c r="AH4" s="18" t="n">
+      <c r="AH4" s="18">
         <v>6</v>
       </c>
-      <c r="AI4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="18" t="n">
+      <c r="AI4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="18">
         <v>10</v>
       </c>
-      <c r="AK4" s="18" t="n">
+      <c r="AK4" s="18">
         <v>10</v>
       </c>
-      <c r="AL4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="18" t="n">
+      <c r="AL4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="18">
         <v>53</v>
       </c>
-      <c r="AN4" s="18" t="n">
+      <c r="AN4" s="18">
         <v>43</v>
       </c>
-      <c r="AO4" s="18" t="n">
+      <c r="AO4" s="18">
         <v>3</v>
       </c>
-      <c r="AP4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="18" t="n">
+      <c r="AP4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="18">
         <v>3</v>
       </c>
-      <c r="AR4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="18" t="n">
+      <c r="AR4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="18">
         <v>48</v>
       </c>
-      <c r="AU4" s="18" t="n">
+      <c r="AU4" s="18">
         <v>5</v>
       </c>
-      <c r="AV4" s="18" t="n">
+      <c r="AV4" s="18">
         <v>4</v>
       </c>
-      <c r="AW4" s="18" t="n">
+      <c r="AW4" s="18">
         <v>4</v>
       </c>
-      <c r="AX4" s="18" t="n">
+      <c r="AX4" s="18">
         <v>4</v>
       </c>
-      <c r="AY4" s="18" t="n">
+      <c r="AY4" s="18">
         <v>11</v>
       </c>
-      <c r="AZ4" s="18" t="n">
+      <c r="AZ4" s="18">
         <v>9</v>
       </c>
-      <c r="BA4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB4" s="18" t="n">
+      <c r="BA4" s="18">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="18">
         <v>11</v>
       </c>
-      <c r="BC4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="18" t="n">
+      <c r="BC4" s="18">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="18">
+        <v>2</v>
+      </c>
+      <c r="BE4" s="18">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="18">
         <v>18</v>
       </c>
-      <c r="BG4" s="18" t="n">
+      <c r="BG4" s="18">
         <v>18</v>
       </c>
-      <c r="BH4" s="18" t="n">
+      <c r="BH4" s="18">
         <v>18</v>
       </c>
-      <c r="BI4" s="18" t="n">
+      <c r="BI4" s="18">
         <v>16</v>
       </c>
-      <c r="BJ4" s="18" t="n">
+      <c r="BJ4" s="18">
         <v>11</v>
       </c>
-      <c r="BK4" s="18" t="n">
+      <c r="BK4" s="18">
         <v>3</v>
       </c>
-      <c r="BL4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="18" t="n">
+      <c r="BL4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="18">
         <v>14</v>
       </c>
-      <c r="BO4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="18" t="n">
+      <c r="BO4" s="18">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="18">
         <v>16</v>
       </c>
-      <c r="BQ4" s="18" t="n">
+      <c r="BQ4" s="18">
         <v>11</v>
       </c>
-      <c r="BR4" s="18" t="n">
+      <c r="BR4" s="18">
         <v>3</v>
       </c>
-      <c r="BS4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="18" t="n">
+      <c r="BS4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="18">
         <v>13</v>
       </c>
-      <c r="BV4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="18" t="n">
+      <c r="BV4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="18">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="18">
         <v>3</v>
       </c>
-      <c r="BY4" s="18" t="n">
+      <c r="BY4" s="18">
         <v>3</v>
       </c>
-      <c r="BZ4" s="18" t="n">
+      <c r="BZ4" s="18">
         <v>3</v>
       </c>
-      <c r="CA4" s="18" t="n">
+      <c r="CA4" s="18">
         <v>120</v>
       </c>
-      <c r="CB4" s="18" t="n">
+      <c r="CB4" s="18">
         <v>80</v>
       </c>
-      <c r="CC4" s="18" t="n">
+      <c r="CC4" s="18">
         <v>5</v>
       </c>
-      <c r="CD4" s="18" t="n">
+      <c r="CD4" s="18">
         <v>10</v>
       </c>
-      <c r="CE4" s="18" t="n">
+      <c r="CE4" s="18">
         <v>10</v>
       </c>
-      <c r="CF4" s="18" t="n">
+      <c r="CF4" s="18">
         <v>15</v>
       </c>
-      <c r="CG4" s="18" t="n">
+      <c r="CG4" s="18">
         <v>104</v>
       </c>
-      <c r="CH4" s="18" t="n">
+      <c r="CH4" s="18">
         <v>15</v>
       </c>
-      <c r="CI4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="18" t="n">
+      <c r="CI4" s="18">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="18">
         <v>146</v>
       </c>
-      <c r="CK4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="18" t="n">
+      <c r="CK4" s="18">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="18">
         <v>139</v>
       </c>
-      <c r="CM4" s="18" t="n">
+      <c r="CM4" s="18">
         <v>3</v>
       </c>
-      <c r="CN4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CO4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="18" t="n">
+      <c r="CN4" s="18">
+        <v>2</v>
+      </c>
+      <c r="CO4" s="18">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="18">
         <v>138</v>
       </c>
-      <c r="CQ4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="18" t="n">
+      <c r="CQ4" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="18">
         <v>7</v>
       </c>
-      <c r="CS4" s="18" t="n">
+      <c r="CS4" s="18">
         <v>68</v>
       </c>
-      <c r="CT4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU4" s="18" t="n">
+      <c r="CT4" s="18">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="18">
         <v>62</v>
       </c>
-      <c r="CV4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CX4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY4" s="18" t="n">
+      <c r="CV4" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW4" s="18">
+        <v>2</v>
+      </c>
+      <c r="CX4" s="18">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="18">
         <v>65</v>
       </c>
-      <c r="CZ4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DA4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB4" s="18" t="n">
+      <c r="CZ4" s="18">
+        <v>2</v>
+      </c>
+      <c r="DA4" s="18">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="18">
         <v>50</v>
       </c>
-      <c r="DC4" s="18" t="n">
+      <c r="DC4" s="18">
         <v>49</v>
       </c>
-      <c r="DD4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE4" s="18" t="n">
+      <c r="DD4" s="18">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="18">
         <v>50</v>
       </c>
-      <c r="DF4" s="18" t="n">
+      <c r="DF4" s="18">
         <v>4</v>
       </c>
-      <c r="DG4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DH4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DI4" s="18" t="n">
+      <c r="DG4" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH4" s="18">
+        <v>2</v>
+      </c>
+      <c r="DI4" s="18">
         <v>3</v>
       </c>
-      <c r="DJ4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DL4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DM4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP4" s="18" t="n">
+      <c r="DJ4" s="18">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="18">
+        <v>2</v>
+      </c>
+      <c r="DL4" s="18">
+        <v>2</v>
+      </c>
+      <c r="DM4" s="18">
+        <v>2</v>
+      </c>
+      <c r="DN4" s="18">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="18">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c t="s" r="A5" s="2">
         <v>71</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="18">
         <v>30</v>
       </c>
       <c r="C5" s="18"/>
@@ -1908,25 +1940,25 @@
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="19" t="n">
+      <c r="AF5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="19">
         <v>2</v>
       </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="19" t="n">
+      <c r="AJ5" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="19">
         <v>2</v>
       </c>
       <c r="AL5" s="19"/>
-      <c r="AM5" s="18" t="n">
+      <c r="AM5" s="18">
         <v>3</v>
       </c>
-      <c r="AN5" s="19" t="n">
+      <c r="AN5" s="19">
         <v>3</v>
       </c>
       <c r="AO5" s="19"/>
@@ -1934,7 +1966,7 @@
       <c r="AQ5" s="19"/>
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
-      <c r="AT5" s="19" t="n">
+      <c r="AT5" s="19">
         <v>3</v>
       </c>
       <c r="AU5" s="19"/>
@@ -1948,13 +1980,13 @@
       <c r="BC5" s="18"/>
       <c r="BD5" s="19"/>
       <c r="BE5" s="19"/>
-      <c r="BF5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="19" t="n">
+      <c r="BF5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="19">
         <v>1</v>
       </c>
       <c r="BI5" s="18"/>
@@ -1975,51 +2007,51 @@
       <c r="BX5" s="18"/>
       <c r="BY5" s="19"/>
       <c r="BZ5" s="19"/>
-      <c r="CA5" s="18" t="n">
+      <c r="CA5" s="18">
         <v>11</v>
       </c>
-      <c r="CB5" s="19" t="n">
+      <c r="CB5" s="19">
         <v>9</v>
       </c>
       <c r="CC5" s="19"/>
-      <c r="CD5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE5" s="19" t="n">
+      <c r="CD5" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="19">
         <v>1</v>
       </c>
       <c r="CF5" s="19"/>
-      <c r="CG5" s="19" t="n">
+      <c r="CG5" s="19">
         <v>11</v>
       </c>
       <c r="CH5" s="19"/>
       <c r="CI5" s="19"/>
-      <c r="CJ5" s="18" t="n">
+      <c r="CJ5" s="18">
         <v>12</v>
       </c>
       <c r="CK5" s="19"/>
-      <c r="CL5" s="19" t="n">
+      <c r="CL5" s="19">
         <v>12</v>
       </c>
       <c r="CM5" s="19"/>
       <c r="CN5" s="19"/>
       <c r="CO5" s="19"/>
-      <c r="CP5" s="19" t="n">
+      <c r="CP5" s="19">
         <v>12</v>
       </c>
       <c r="CQ5" s="19"/>
       <c r="CR5" s="19"/>
-      <c r="CS5" s="18" t="n">
+      <c r="CS5" s="18">
         <v>1</v>
       </c>
       <c r="CT5" s="19"/>
-      <c r="CU5" s="19" t="n">
+      <c r="CU5" s="19">
         <v>1</v>
       </c>
       <c r="CV5" s="19"/>
       <c r="CW5" s="19"/>
       <c r="CX5" s="19"/>
-      <c r="CY5" s="19" t="n">
+      <c r="CY5" s="19">
         <v>1</v>
       </c>
       <c r="CZ5" s="19"/>
@@ -2040,11 +2072,11 @@
       <c r="DO5" s="19"/>
       <c r="DP5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c t="s" r="A6" s="2">
         <v>72</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="18">
         <v>43</v>
       </c>
       <c r="C6" s="18"/>
@@ -2083,10 +2115,10 @@
       <c r="AJ6" s="19"/>
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
-      <c r="AM6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="19" t="n">
+      <c r="AM6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="19">
         <v>1</v>
       </c>
       <c r="AO6" s="19"/>
@@ -2094,17 +2126,17 @@
       <c r="AQ6" s="19"/>
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
-      <c r="AT6" s="19" t="n">
+      <c r="AT6" s="19">
         <v>1</v>
       </c>
       <c r="AU6" s="19"/>
-      <c r="AV6" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW6" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="19" t="n">
+      <c r="AV6" s="18">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="19">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="19">
         <v>2</v>
       </c>
       <c r="AY6" s="18"/>
@@ -2114,32 +2146,32 @@
       <c r="BC6" s="18"/>
       <c r="BD6" s="19"/>
       <c r="BE6" s="19"/>
-      <c r="BF6" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG6" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH6" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI6" s="18" t="n">
+      <c r="BF6" s="18">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="19">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="19">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="18">
         <v>10</v>
       </c>
-      <c r="BJ6" s="19" t="n">
+      <c r="BJ6" s="19">
         <v>7</v>
       </c>
-      <c r="BK6" s="19" t="n">
+      <c r="BK6" s="19">
         <v>2</v>
       </c>
       <c r="BL6" s="19"/>
-      <c r="BM6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="19" t="n">
+      <c r="BM6" s="19">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="19">
         <v>9</v>
       </c>
-      <c r="BO6" s="19" t="n">
+      <c r="BO6" s="19">
         <v>1</v>
       </c>
       <c r="BP6" s="18"/>
@@ -2153,55 +2185,55 @@
       <c r="BX6" s="18"/>
       <c r="BY6" s="19"/>
       <c r="BZ6" s="19"/>
-      <c r="CA6" s="18" t="n">
+      <c r="CA6" s="18">
         <v>11</v>
       </c>
-      <c r="CB6" s="19" t="n">
+      <c r="CB6" s="19">
         <v>9</v>
       </c>
       <c r="CC6" s="19"/>
-      <c r="CD6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="19" t="n">
+      <c r="CD6" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="19">
         <v>1</v>
       </c>
       <c r="CF6" s="19"/>
-      <c r="CG6" s="19" t="n">
+      <c r="CG6" s="19">
         <v>11</v>
       </c>
       <c r="CH6" s="19"/>
       <c r="CI6" s="19"/>
-      <c r="CJ6" s="18" t="n">
+      <c r="CJ6" s="18">
         <v>10</v>
       </c>
       <c r="CK6" s="19"/>
-      <c r="CL6" s="19" t="n">
+      <c r="CL6" s="19">
         <v>9</v>
       </c>
       <c r="CM6" s="19"/>
-      <c r="CN6" s="19" t="n">
+      <c r="CN6" s="19">
         <v>1</v>
       </c>
       <c r="CO6" s="19"/>
-      <c r="CP6" s="19" t="n">
+      <c r="CP6" s="19">
         <v>9</v>
       </c>
       <c r="CQ6" s="19"/>
-      <c r="CR6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS6" s="18" t="n">
+      <c r="CR6" s="19">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="18">
         <v>7</v>
       </c>
       <c r="CT6" s="19"/>
-      <c r="CU6" s="19" t="n">
+      <c r="CU6" s="19">
         <v>7</v>
       </c>
       <c r="CV6" s="19"/>
       <c r="CW6" s="19"/>
       <c r="CX6" s="19"/>
-      <c r="CY6" s="19" t="n">
+      <c r="CY6" s="19">
         <v>7</v>
       </c>
       <c r="CZ6" s="19"/>
@@ -2222,11 +2254,11 @@
       <c r="DO6" s="19"/>
       <c r="DP6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c t="s" r="A7" s="2">
         <v>73</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="18">
         <v>23</v>
       </c>
       <c r="C7" s="18"/>
@@ -2265,10 +2297,10 @@
       <c r="AJ7" s="19"/>
       <c r="AK7" s="19"/>
       <c r="AL7" s="19"/>
-      <c r="AM7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="19" t="n">
+      <c r="AM7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="19">
         <v>1</v>
       </c>
       <c r="AO7" s="19"/>
@@ -2276,7 +2308,7 @@
       <c r="AQ7" s="19"/>
       <c r="AR7" s="19"/>
       <c r="AS7" s="19"/>
-      <c r="AT7" s="19" t="n">
+      <c r="AT7" s="19">
         <v>1</v>
       </c>
       <c r="AU7" s="19"/>
@@ -2311,55 +2343,55 @@
       <c r="BX7" s="18"/>
       <c r="BY7" s="19"/>
       <c r="BZ7" s="19"/>
-      <c r="CA7" s="18" t="n">
+      <c r="CA7" s="18">
         <v>11</v>
       </c>
-      <c r="CB7" s="19" t="n">
+      <c r="CB7" s="19">
         <v>9</v>
       </c>
       <c r="CC7" s="19"/>
-      <c r="CD7" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="19" t="n">
+      <c r="CD7" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="19">
         <v>1</v>
       </c>
       <c r="CF7" s="19"/>
-      <c r="CG7" s="19" t="n">
+      <c r="CG7" s="19">
         <v>11</v>
       </c>
       <c r="CH7" s="19"/>
       <c r="CI7" s="19"/>
-      <c r="CJ7" s="18" t="n">
+      <c r="CJ7" s="18">
         <v>6</v>
       </c>
       <c r="CK7" s="19"/>
-      <c r="CL7" s="19" t="n">
+      <c r="CL7" s="19">
         <v>5</v>
       </c>
-      <c r="CM7" s="19" t="n">
+      <c r="CM7" s="19">
         <v>1</v>
       </c>
       <c r="CN7" s="19"/>
       <c r="CO7" s="19"/>
-      <c r="CP7" s="19" t="n">
+      <c r="CP7" s="19">
         <v>3</v>
       </c>
       <c r="CQ7" s="19"/>
-      <c r="CR7" s="19" t="n">
+      <c r="CR7" s="19">
         <v>3</v>
       </c>
-      <c r="CS7" s="18" t="n">
+      <c r="CS7" s="18">
         <v>5</v>
       </c>
       <c r="CT7" s="19"/>
-      <c r="CU7" s="19" t="n">
+      <c r="CU7" s="19">
         <v>5</v>
       </c>
       <c r="CV7" s="19"/>
       <c r="CW7" s="19"/>
       <c r="CX7" s="19"/>
-      <c r="CY7" s="19" t="n">
+      <c r="CY7" s="19">
         <v>5</v>
       </c>
       <c r="CZ7" s="19"/>
@@ -2380,11 +2412,11 @@
       <c r="DO7" s="19"/>
       <c r="DP7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c t="s" r="A8" s="2">
         <v>74</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="18">
         <v>59</v>
       </c>
       <c r="C8" s="18"/>
@@ -2423,10 +2455,10 @@
       <c r="AJ8" s="19"/>
       <c r="AK8" s="19"/>
       <c r="AL8" s="19"/>
-      <c r="AM8" s="18" t="n">
+      <c r="AM8" s="18">
         <v>5</v>
       </c>
-      <c r="AN8" s="19" t="n">
+      <c r="AN8" s="19">
         <v>5</v>
       </c>
       <c r="AO8" s="19"/>
@@ -2434,7 +2466,7 @@
       <c r="AQ8" s="19"/>
       <c r="AR8" s="19"/>
       <c r="AS8" s="19"/>
-      <c r="AT8" s="19" t="n">
+      <c r="AT8" s="19">
         <v>5</v>
       </c>
       <c r="AU8" s="19"/>
@@ -2448,13 +2480,13 @@
       <c r="BC8" s="18"/>
       <c r="BD8" s="19"/>
       <c r="BE8" s="19"/>
-      <c r="BF8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="19" t="n">
+      <c r="BF8" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="19">
         <v>1</v>
       </c>
       <c r="BI8" s="18"/>
@@ -2464,18 +2496,18 @@
       <c r="BM8" s="19"/>
       <c r="BN8" s="19"/>
       <c r="BO8" s="19"/>
-      <c r="BP8" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ8" s="19" t="n">
+      <c r="BP8" s="18">
+        <v>2</v>
+      </c>
+      <c r="BQ8" s="19">
         <v>1</v>
       </c>
       <c r="BR8" s="19"/>
-      <c r="BS8" s="19" t="n">
+      <c r="BS8" s="19">
         <v>1</v>
       </c>
       <c r="BT8" s="19"/>
-      <c r="BU8" s="19" t="n">
+      <c r="BU8" s="19">
         <v>2</v>
       </c>
       <c r="BV8" s="19"/>
@@ -2483,73 +2515,73 @@
       <c r="BX8" s="18"/>
       <c r="BY8" s="19"/>
       <c r="BZ8" s="19"/>
-      <c r="CA8" s="18" t="n">
+      <c r="CA8" s="18">
         <v>24</v>
       </c>
-      <c r="CB8" s="19" t="n">
+      <c r="CB8" s="19">
         <v>16</v>
       </c>
-      <c r="CC8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE8" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF8" s="19" t="n">
+      <c r="CC8" s="19">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="19">
+        <v>2</v>
+      </c>
+      <c r="CE8" s="19">
+        <v>2</v>
+      </c>
+      <c r="CF8" s="19">
         <v>3</v>
       </c>
-      <c r="CG8" s="19" t="n">
+      <c r="CG8" s="19">
         <v>21</v>
       </c>
-      <c r="CH8" s="19" t="n">
+      <c r="CH8" s="19">
         <v>3</v>
       </c>
       <c r="CI8" s="19"/>
-      <c r="CJ8" s="18" t="n">
+      <c r="CJ8" s="18">
         <v>18</v>
       </c>
       <c r="CK8" s="19"/>
-      <c r="CL8" s="19" t="n">
+      <c r="CL8" s="19">
         <v>17</v>
       </c>
-      <c r="CM8" s="19" t="n">
+      <c r="CM8" s="19">
         <v>1</v>
       </c>
       <c r="CN8" s="19"/>
       <c r="CO8" s="19"/>
-      <c r="CP8" s="19" t="n">
+      <c r="CP8" s="19">
         <v>17</v>
       </c>
       <c r="CQ8" s="19"/>
-      <c r="CR8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS8" s="18" t="n">
+      <c r="CR8" s="19">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="18">
         <v>8</v>
       </c>
       <c r="CT8" s="19"/>
-      <c r="CU8" s="19" t="n">
+      <c r="CU8" s="19">
         <v>8</v>
       </c>
       <c r="CV8" s="19"/>
       <c r="CW8" s="19"/>
       <c r="CX8" s="19"/>
-      <c r="CY8" s="19" t="n">
+      <c r="CY8" s="19">
         <v>8</v>
       </c>
       <c r="CZ8" s="19"/>
       <c r="DA8" s="19"/>
-      <c r="DB8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC8" s="19" t="n">
+      <c r="DB8" s="18">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="19">
         <v>1</v>
       </c>
       <c r="DD8" s="19"/>
-      <c r="DE8" s="19" t="n">
+      <c r="DE8" s="19">
         <v>1</v>
       </c>
       <c r="DF8" s="18"/>
@@ -2564,11 +2596,11 @@
       <c r="DO8" s="19"/>
       <c r="DP8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c t="s" r="A9" s="2">
         <v>75</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="18">
         <v>56</v>
       </c>
       <c r="C9" s="18"/>
@@ -2583,19 +2615,19 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="19" t="n">
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
         <v>1</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
-      <c r="T9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="19" t="n">
+      <c r="T9" s="19">
+        <v>1</v>
+      </c>
+      <c r="U9" s="19">
         <v>1</v>
       </c>
       <c r="V9" s="18"/>
@@ -2615,10 +2647,10 @@
       <c r="AJ9" s="19"/>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
-      <c r="AM9" s="18" t="n">
+      <c r="AM9" s="18">
         <v>6</v>
       </c>
-      <c r="AN9" s="19" t="n">
+      <c r="AN9" s="19">
         <v>6</v>
       </c>
       <c r="AO9" s="19"/>
@@ -2626,17 +2658,17 @@
       <c r="AQ9" s="19"/>
       <c r="AR9" s="19"/>
       <c r="AS9" s="19"/>
-      <c r="AT9" s="19" t="n">
+      <c r="AT9" s="19">
         <v>6</v>
       </c>
       <c r="AU9" s="19"/>
-      <c r="AV9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="19" t="n">
+      <c r="AV9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="19">
         <v>1</v>
       </c>
       <c r="AY9" s="18"/>
@@ -2646,13 +2678,13 @@
       <c r="BC9" s="18"/>
       <c r="BD9" s="19"/>
       <c r="BE9" s="19"/>
-      <c r="BF9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH9" s="19" t="n">
+      <c r="BF9" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="19">
         <v>1</v>
       </c>
       <c r="BI9" s="18"/>
@@ -2662,85 +2694,85 @@
       <c r="BM9" s="19"/>
       <c r="BN9" s="19"/>
       <c r="BO9" s="19"/>
-      <c r="BP9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ9" s="19" t="n">
+      <c r="BP9" s="18">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="19">
         <v>1</v>
       </c>
       <c r="BR9" s="19"/>
       <c r="BS9" s="19"/>
       <c r="BT9" s="19"/>
-      <c r="BU9" s="19" t="n">
+      <c r="BU9" s="19">
         <v>1</v>
       </c>
       <c r="BV9" s="19"/>
       <c r="BW9" s="19"/>
-      <c r="BX9" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY9" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ9" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA9" s="18" t="n">
+      <c r="BX9" s="18">
+        <v>2</v>
+      </c>
+      <c r="BY9" s="19">
+        <v>2</v>
+      </c>
+      <c r="BZ9" s="19">
+        <v>2</v>
+      </c>
+      <c r="CA9" s="18">
         <v>24</v>
       </c>
-      <c r="CB9" s="19" t="n">
+      <c r="CB9" s="19">
         <v>16</v>
       </c>
-      <c r="CC9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD9" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE9" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF9" s="19" t="n">
+      <c r="CC9" s="19">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="19">
+        <v>2</v>
+      </c>
+      <c r="CE9" s="19">
+        <v>2</v>
+      </c>
+      <c r="CF9" s="19">
         <v>3</v>
       </c>
-      <c r="CG9" s="19" t="n">
+      <c r="CG9" s="19">
         <v>21</v>
       </c>
-      <c r="CH9" s="19" t="n">
+      <c r="CH9" s="19">
         <v>3</v>
       </c>
       <c r="CI9" s="19"/>
-      <c r="CJ9" s="18" t="n">
+      <c r="CJ9" s="18">
         <v>15</v>
       </c>
       <c r="CK9" s="19"/>
-      <c r="CL9" s="19" t="n">
+      <c r="CL9" s="19">
         <v>15</v>
       </c>
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="19" t="n">
+      <c r="CP9" s="19">
         <v>15</v>
       </c>
       <c r="CQ9" s="19"/>
       <c r="CR9" s="19"/>
-      <c r="CS9" s="18" t="n">
+      <c r="CS9" s="18">
         <v>5</v>
       </c>
       <c r="CT9" s="19"/>
-      <c r="CU9" s="19" t="n">
+      <c r="CU9" s="19">
         <v>4</v>
       </c>
       <c r="CV9" s="19"/>
-      <c r="CW9" s="19" t="n">
+      <c r="CW9" s="19">
         <v>1</v>
       </c>
       <c r="CX9" s="19"/>
-      <c r="CY9" s="19" t="n">
+      <c r="CY9" s="19">
         <v>4</v>
       </c>
-      <c r="CZ9" s="19" t="n">
+      <c r="CZ9" s="19">
         <v>1</v>
       </c>
       <c r="DA9" s="19"/>
@@ -2760,11 +2792,11 @@
       <c r="DO9" s="19"/>
       <c r="DP9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c t="s" r="A10" s="2">
         <v>76</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="18">
         <v>21</v>
       </c>
       <c r="C10" s="18"/>
@@ -2803,10 +2835,10 @@
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
-      <c r="AM10" s="18" t="n">
+      <c r="AM10" s="18">
         <v>3</v>
       </c>
-      <c r="AN10" s="19" t="n">
+      <c r="AN10" s="19">
         <v>3</v>
       </c>
       <c r="AO10" s="19"/>
@@ -2814,7 +2846,7 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="19"/>
-      <c r="AT10" s="19" t="n">
+      <c r="AT10" s="19">
         <v>3</v>
       </c>
       <c r="AU10" s="19"/>
@@ -2828,13 +2860,13 @@
       <c r="BC10" s="18"/>
       <c r="BD10" s="19"/>
       <c r="BE10" s="19"/>
-      <c r="BF10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="19" t="n">
+      <c r="BF10" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="19">
         <v>1</v>
       </c>
       <c r="BI10" s="18"/>
@@ -2864,42 +2896,42 @@
       <c r="CG10" s="19"/>
       <c r="CH10" s="19"/>
       <c r="CI10" s="19"/>
-      <c r="CJ10" s="18" t="n">
+      <c r="CJ10" s="18">
         <v>12</v>
       </c>
-      <c r="CK10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL10" s="19" t="n">
+      <c r="CK10" s="19">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="19">
         <v>9</v>
       </c>
       <c r="CM10" s="19"/>
-      <c r="CN10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP10" s="19" t="n">
+      <c r="CN10" s="19">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="19">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="19">
         <v>10</v>
       </c>
-      <c r="CQ10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS10" s="18" t="n">
+      <c r="CQ10" s="19">
+        <v>1</v>
+      </c>
+      <c r="CR10" s="19">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="18">
         <v>4</v>
       </c>
       <c r="CT10" s="19"/>
-      <c r="CU10" s="19" t="n">
+      <c r="CU10" s="19">
         <v>4</v>
       </c>
       <c r="CV10" s="19"/>
       <c r="CW10" s="19"/>
       <c r="CX10" s="19"/>
-      <c r="CY10" s="19" t="n">
+      <c r="CY10" s="19">
         <v>4</v>
       </c>
       <c r="CZ10" s="19"/>
@@ -2908,18 +2940,18 @@
       <c r="DC10" s="19"/>
       <c r="DD10" s="19"/>
       <c r="DE10" s="19"/>
-      <c r="DF10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG10" s="19" t="n">
+      <c r="DF10" s="18">
+        <v>1</v>
+      </c>
+      <c r="DG10" s="19">
         <v>1</v>
       </c>
       <c r="DH10" s="19"/>
-      <c r="DI10" s="19" t="n">
+      <c r="DI10" s="19">
         <v>1</v>
       </c>
       <c r="DJ10" s="19"/>
-      <c r="DK10" s="19" t="n">
+      <c r="DK10" s="19">
         <v>1</v>
       </c>
       <c r="DL10" s="19"/>
@@ -2928,11 +2960,11 @@
       <c r="DO10" s="19"/>
       <c r="DP10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c t="s" r="A11" s="2">
         <v>77</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="18">
         <v>41</v>
       </c>
       <c r="C11" s="18"/>
@@ -2947,17 +2979,17 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="18">
         <v>1</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
-      <c r="T11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="19" t="n">
+      <c r="T11" s="19">
+        <v>1</v>
+      </c>
+      <c r="U11" s="19">
         <v>1</v>
       </c>
       <c r="V11" s="18"/>
@@ -2977,54 +3009,54 @@
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
-      <c r="AM11" s="18" t="n">
+      <c r="AM11" s="18">
         <v>6</v>
       </c>
-      <c r="AN11" s="19" t="n">
+      <c r="AN11" s="19">
         <v>4</v>
       </c>
-      <c r="AO11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="19" t="n">
+      <c r="AO11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="19">
         <v>1</v>
       </c>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="19"/>
-      <c r="AT11" s="19" t="n">
+      <c r="AT11" s="19">
         <v>6</v>
       </c>
       <c r="AU11" s="19"/>
-      <c r="AV11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ11" s="19" t="n">
+      <c r="AV11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="19">
         <v>2</v>
       </c>
       <c r="BA11" s="19"/>
-      <c r="BB11" s="19" t="n">
+      <c r="BB11" s="19">
         <v>2</v>
       </c>
       <c r="BC11" s="18"/>
       <c r="BD11" s="19"/>
       <c r="BE11" s="19"/>
-      <c r="BF11" s="18" t="n">
+      <c r="BF11" s="18">
         <v>3</v>
       </c>
-      <c r="BG11" s="19" t="n">
+      <c r="BG11" s="19">
         <v>3</v>
       </c>
-      <c r="BH11" s="19" t="n">
+      <c r="BH11" s="19">
         <v>3</v>
       </c>
       <c r="BI11" s="18"/>
@@ -3034,33 +3066,33 @@
       <c r="BM11" s="19"/>
       <c r="BN11" s="19"/>
       <c r="BO11" s="19"/>
-      <c r="BP11" s="18" t="n">
+      <c r="BP11" s="18">
         <v>10</v>
       </c>
-      <c r="BQ11" s="19" t="n">
+      <c r="BQ11" s="19">
         <v>8</v>
       </c>
-      <c r="BR11" s="19" t="n">
+      <c r="BR11" s="19">
         <v>1</v>
       </c>
       <c r="BS11" s="19"/>
-      <c r="BT11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="19" t="n">
+      <c r="BT11" s="19">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="19">
         <v>9</v>
       </c>
       <c r="BV11" s="19"/>
-      <c r="BW11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="19" t="n">
+      <c r="BW11" s="19">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="18">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="19">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="19">
         <v>1</v>
       </c>
       <c r="CA11" s="18"/>
@@ -3072,32 +3104,32 @@
       <c r="CG11" s="19"/>
       <c r="CH11" s="19"/>
       <c r="CI11" s="19"/>
-      <c r="CJ11" s="18" t="n">
+      <c r="CJ11" s="18">
         <v>14</v>
       </c>
       <c r="CK11" s="19"/>
-      <c r="CL11" s="19" t="n">
+      <c r="CL11" s="19">
         <v>14</v>
       </c>
       <c r="CM11" s="19"/>
       <c r="CN11" s="19"/>
       <c r="CO11" s="19"/>
-      <c r="CP11" s="19" t="n">
+      <c r="CP11" s="19">
         <v>14</v>
       </c>
       <c r="CQ11" s="19"/>
       <c r="CR11" s="19"/>
-      <c r="CS11" s="18" t="n">
+      <c r="CS11" s="18">
         <v>3</v>
       </c>
       <c r="CT11" s="19"/>
-      <c r="CU11" s="19" t="n">
+      <c r="CU11" s="19">
         <v>3</v>
       </c>
       <c r="CV11" s="19"/>
       <c r="CW11" s="19"/>
       <c r="CX11" s="19"/>
-      <c r="CY11" s="19" t="n">
+      <c r="CY11" s="19">
         <v>3</v>
       </c>
       <c r="CZ11" s="19"/>
@@ -3118,11 +3150,11 @@
       <c r="DO11" s="19"/>
       <c r="DP11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="15" customHeight="1">
+      <c t="s" r="A12" s="2">
         <v>78</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="18">
         <v>31</v>
       </c>
       <c r="C12" s="18"/>
@@ -3132,17 +3164,17 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="18">
         <v>1</v>
       </c>
       <c r="K12" s="19"/>
-      <c r="L12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="19" t="n">
+      <c r="L12" s="19">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
         <v>1</v>
       </c>
       <c r="O12" s="18"/>
@@ -3152,30 +3184,30 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="18" t="n">
+      <c r="V12" s="18">
         <v>2</v>
       </c>
       <c r="W12" s="19"/>
-      <c r="X12" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="19" t="n">
+      <c r="X12" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="19">
         <v>2</v>
       </c>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="19" t="n">
+      <c r="AA12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="19">
         <v>2</v>
       </c>
       <c r="AF12" s="18"/>
@@ -3185,10 +3217,10 @@
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
-      <c r="AM12" s="18" t="n">
+      <c r="AM12" s="18">
         <v>5</v>
       </c>
-      <c r="AN12" s="19" t="n">
+      <c r="AN12" s="19">
         <v>5</v>
       </c>
       <c r="AO12" s="19"/>
@@ -3196,33 +3228,33 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="19"/>
-      <c r="AT12" s="19" t="n">
+      <c r="AT12" s="19">
         <v>5</v>
       </c>
       <c r="AU12" s="19"/>
       <c r="AV12" s="18"/>
       <c r="AW12" s="19"/>
       <c r="AX12" s="19"/>
-      <c r="AY12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="19" t="n">
+      <c r="AY12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="19">
         <v>1</v>
       </c>
       <c r="BA12" s="19"/>
-      <c r="BB12" s="19" t="n">
+      <c r="BB12" s="19">
         <v>1</v>
       </c>
       <c r="BC12" s="18"/>
       <c r="BD12" s="19"/>
       <c r="BE12" s="19"/>
-      <c r="BF12" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG12" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH12" s="19" t="n">
+      <c r="BF12" s="18">
+        <v>2</v>
+      </c>
+      <c r="BG12" s="19">
+        <v>2</v>
+      </c>
+      <c r="BH12" s="19">
         <v>2</v>
       </c>
       <c r="BI12" s="18"/>
@@ -3232,17 +3264,17 @@
       <c r="BM12" s="19"/>
       <c r="BN12" s="19"/>
       <c r="BO12" s="19"/>
-      <c r="BP12" s="18" t="n">
+      <c r="BP12" s="18">
         <v>1</v>
       </c>
       <c r="BQ12" s="19"/>
-      <c r="BR12" s="19" t="n">
+      <c r="BR12" s="19">
         <v>1</v>
       </c>
       <c r="BS12" s="19"/>
       <c r="BT12" s="19"/>
       <c r="BU12" s="19"/>
-      <c r="BV12" s="19" t="n">
+      <c r="BV12" s="19">
         <v>1</v>
       </c>
       <c r="BW12" s="19"/>
@@ -3258,44 +3290,44 @@
       <c r="CG12" s="19"/>
       <c r="CH12" s="19"/>
       <c r="CI12" s="19"/>
-      <c r="CJ12" s="18" t="n">
+      <c r="CJ12" s="18">
         <v>10</v>
       </c>
       <c r="CK12" s="19"/>
-      <c r="CL12" s="19" t="n">
+      <c r="CL12" s="19">
         <v>10</v>
       </c>
       <c r="CM12" s="19"/>
       <c r="CN12" s="19"/>
       <c r="CO12" s="19"/>
-      <c r="CP12" s="19" t="n">
+      <c r="CP12" s="19">
         <v>10</v>
       </c>
       <c r="CQ12" s="19"/>
       <c r="CR12" s="19"/>
-      <c r="CS12" s="18" t="n">
+      <c r="CS12" s="18">
         <v>9</v>
       </c>
-      <c r="CT12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU12" s="19" t="n">
+      <c r="CT12" s="19">
+        <v>1</v>
+      </c>
+      <c r="CU12" s="19">
         <v>6</v>
       </c>
-      <c r="CV12" s="19" t="n">
+      <c r="CV12" s="19">
         <v>1</v>
       </c>
       <c r="CW12" s="19"/>
-      <c r="CX12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY12" s="19" t="n">
+      <c r="CX12" s="19">
+        <v>1</v>
+      </c>
+      <c r="CY12" s="19">
         <v>7</v>
       </c>
-      <c r="CZ12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA12" s="19" t="n">
+      <c r="CZ12" s="19">
+        <v>1</v>
+      </c>
+      <c r="DA12" s="19">
         <v>1</v>
       </c>
       <c r="DB12" s="18"/>
@@ -3314,26 +3346,26 @@
       <c r="DO12" s="19"/>
       <c r="DP12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="15" customHeight="1">
+      <c t="s" r="A13" s="2">
         <v>79</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="18">
         <v>45</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="18">
         <v>2</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="19">
         <v>2</v>
       </c>
       <c r="J13" s="18"/>
@@ -3358,39 +3390,39 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="18" t="n">
+      <c r="AF13" s="18">
         <v>4</v>
       </c>
       <c r="AG13" s="19"/>
-      <c r="AH13" s="19" t="n">
+      <c r="AH13" s="19">
         <v>4</v>
       </c>
-      <c r="AI13" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN13" s="19" t="n">
+      <c r="AI13" s="19">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="19">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="19">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="19">
         <v>1</v>
       </c>
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
-      <c r="AS13" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="19" t="n">
+      <c r="AS13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="19">
         <v>2</v>
       </c>
       <c r="AU13" s="19"/>
@@ -3443,31 +3475,31 @@
       <c r="CP13" s="19"/>
       <c r="CQ13" s="19"/>
       <c r="CR13" s="19"/>
-      <c r="CS13" s="18" t="n">
+      <c r="CS13" s="18">
         <v>2</v>
       </c>
       <c r="CT13" s="19"/>
-      <c r="CU13" s="19" t="n">
+      <c r="CU13" s="19">
         <v>2</v>
       </c>
       <c r="CV13" s="19"/>
       <c r="CW13" s="19"/>
       <c r="CX13" s="19"/>
-      <c r="CY13" s="19" t="n">
+      <c r="CY13" s="19">
         <v>2</v>
       </c>
       <c r="CZ13" s="19"/>
       <c r="DA13" s="19"/>
-      <c r="DB13" s="18" t="n">
+      <c r="DB13" s="18">
         <v>35</v>
       </c>
-      <c r="DC13" s="19" t="n">
+      <c r="DC13" s="19">
         <v>34</v>
       </c>
-      <c r="DD13" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE13" s="19" t="n">
+      <c r="DD13" s="19">
+        <v>1</v>
+      </c>
+      <c r="DE13" s="19">
         <v>35</v>
       </c>
       <c r="DF13" s="18"/>
@@ -3482,97 +3514,97 @@
       <c r="DO13" s="19"/>
       <c r="DP13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="15" customHeight="1">
+      <c t="s" r="A14" s="2">
         <v>80</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="18">
         <v>22</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="18">
         <v>10</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="19">
         <v>3</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="19">
         <v>3</v>
       </c>
       <c r="G14" s="19"/>
-      <c r="H14" s="19" t="n">
+      <c r="H14" s="19">
         <v>10</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="19" t="n">
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19">
         <v>1</v>
       </c>
       <c r="L14" s="19"/>
-      <c r="M14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="18" t="n">
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18">
         <v>1</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="18" t="n">
+      <c r="T14" s="19">
+        <v>1</v>
+      </c>
+      <c r="U14" s="19">
+        <v>1</v>
+      </c>
+      <c r="V14" s="18">
         <v>1</v>
       </c>
       <c r="W14" s="19"/>
-      <c r="X14" s="19" t="n">
+      <c r="X14" s="19">
         <v>1</v>
       </c>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="19" t="n">
+      <c r="Z14" s="19">
         <v>1</v>
       </c>
       <c r="AA14" s="19"/>
-      <c r="AB14" s="19" t="n">
+      <c r="AB14" s="19">
         <v>1</v>
       </c>
       <c r="AC14" s="19"/>
-      <c r="AD14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="18" t="n">
+      <c r="AD14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="18">
         <v>2</v>
       </c>
       <c r="AG14" s="19"/>
-      <c r="AH14" s="19" t="n">
+      <c r="AH14" s="19">
         <v>2</v>
       </c>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="19" t="n">
+      <c r="AJ14" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="19">
         <v>2</v>
       </c>
       <c r="AL14" s="19"/>
-      <c r="AM14" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="19" t="n">
+      <c r="AM14" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="19">
         <v>2</v>
       </c>
       <c r="AO14" s="19"/>
@@ -3580,7 +3612,7 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
-      <c r="AT14" s="19" t="n">
+      <c r="AT14" s="19">
         <v>2</v>
       </c>
       <c r="AU14" s="19"/>
@@ -3591,13 +3623,13 @@
       <c r="AZ14" s="19"/>
       <c r="BA14" s="19"/>
       <c r="BB14" s="19"/>
-      <c r="BC14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="19" t="n">
+      <c r="BC14" s="18">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="19">
         <v>1</v>
       </c>
       <c r="BF14" s="18"/>
@@ -3630,32 +3662,32 @@
       <c r="CG14" s="19"/>
       <c r="CH14" s="19"/>
       <c r="CI14" s="19"/>
-      <c r="CJ14" s="18" t="n">
+      <c r="CJ14" s="18">
         <v>1</v>
       </c>
       <c r="CK14" s="19"/>
-      <c r="CL14" s="19" t="n">
+      <c r="CL14" s="19">
         <v>1</v>
       </c>
       <c r="CM14" s="19"/>
       <c r="CN14" s="19"/>
       <c r="CO14" s="19"/>
-      <c r="CP14" s="19" t="n">
+      <c r="CP14" s="19">
         <v>1</v>
       </c>
       <c r="CQ14" s="19"/>
       <c r="CR14" s="19"/>
-      <c r="CS14" s="18" t="n">
+      <c r="CS14" s="18">
         <v>1</v>
       </c>
       <c r="CT14" s="19"/>
-      <c r="CU14" s="19" t="n">
+      <c r="CU14" s="19">
         <v>1</v>
       </c>
       <c r="CV14" s="19"/>
       <c r="CW14" s="19"/>
       <c r="CX14" s="19"/>
-      <c r="CY14" s="19" t="n">
+      <c r="CY14" s="19">
         <v>1</v>
       </c>
       <c r="CZ14" s="19"/>
@@ -3671,36 +3703,36 @@
       <c r="DJ14" s="19"/>
       <c r="DK14" s="19"/>
       <c r="DL14" s="19"/>
-      <c r="DM14" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO14" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP14" s="19" t="n">
+      <c r="DM14" s="18">
+        <v>2</v>
+      </c>
+      <c r="DN14" s="19">
+        <v>1</v>
+      </c>
+      <c r="DO14" s="19">
+        <v>1</v>
+      </c>
+      <c r="DP14" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="15" customHeight="1">
+      <c t="s" r="A15" s="2">
         <v>81</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="19">
         <v>1</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="19" t="n">
+      <c r="H15" s="19">
         <v>1</v>
       </c>
       <c r="I15" s="19"/>
@@ -3726,18 +3758,18 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
-      <c r="AF15" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="19" t="n">
+      <c r="AF15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="19">
         <v>1</v>
       </c>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="19" t="n">
+      <c r="AJ15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="19">
         <v>1</v>
       </c>
       <c r="AL15" s="19"/>
@@ -3790,32 +3822,32 @@
       <c r="CG15" s="19"/>
       <c r="CH15" s="19"/>
       <c r="CI15" s="19"/>
-      <c r="CJ15" s="18" t="n">
+      <c r="CJ15" s="18">
         <v>3</v>
       </c>
       <c r="CK15" s="19"/>
-      <c r="CL15" s="19" t="n">
+      <c r="CL15" s="19">
         <v>3</v>
       </c>
       <c r="CM15" s="19"/>
       <c r="CN15" s="19"/>
       <c r="CO15" s="19"/>
-      <c r="CP15" s="19" t="n">
+      <c r="CP15" s="19">
         <v>3</v>
       </c>
       <c r="CQ15" s="19"/>
       <c r="CR15" s="19"/>
-      <c r="CS15" s="18" t="n">
+      <c r="CS15" s="18">
         <v>6</v>
       </c>
       <c r="CT15" s="19"/>
-      <c r="CU15" s="19" t="n">
+      <c r="CU15" s="19">
         <v>6</v>
       </c>
       <c r="CV15" s="19"/>
       <c r="CW15" s="19"/>
       <c r="CX15" s="19"/>
-      <c r="CY15" s="19" t="n">
+      <c r="CY15" s="19">
         <v>6</v>
       </c>
       <c r="CZ15" s="19"/>
@@ -3836,11 +3868,11 @@
       <c r="DO15" s="19"/>
       <c r="DP15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="15" customHeight="1">
+      <c t="s" r="A16" s="2">
         <v>82</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="18">
         <v>13</v>
       </c>
       <c r="C16" s="18"/>
@@ -3855,21 +3887,21 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="18" t="n">
+      <c r="O16" s="18">
         <v>1</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="19" t="n">
+      <c r="R16" s="19">
+        <v>1</v>
+      </c>
+      <c r="S16" s="19">
+        <v>1</v>
+      </c>
+      <c r="T16" s="19">
+        <v>1</v>
+      </c>
+      <c r="U16" s="19">
         <v>1</v>
       </c>
       <c r="V16" s="18"/>
@@ -3889,27 +3921,27 @@
       <c r="AJ16" s="19"/>
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
-      <c r="AM16" s="18" t="n">
+      <c r="AM16" s="18">
         <v>4</v>
       </c>
-      <c r="AN16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="19" t="n">
+      <c r="AN16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="19">
         <v>2</v>
       </c>
       <c r="AP16" s="19"/>
-      <c r="AQ16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="19" t="n">
+      <c r="AQ16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="19">
         <v>1</v>
       </c>
       <c r="AS16" s="19"/>
-      <c r="AT16" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU16" s="19" t="n">
+      <c r="AT16" s="19">
+        <v>2</v>
+      </c>
+      <c r="AU16" s="19">
         <v>2</v>
       </c>
       <c r="AV16" s="18"/>
@@ -3922,13 +3954,13 @@
       <c r="BC16" s="18"/>
       <c r="BD16" s="19"/>
       <c r="BE16" s="19"/>
-      <c r="BF16" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="19" t="n">
+      <c r="BF16" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="19">
         <v>1</v>
       </c>
       <c r="BI16" s="18"/>
@@ -3958,32 +3990,32 @@
       <c r="CG16" s="19"/>
       <c r="CH16" s="19"/>
       <c r="CI16" s="19"/>
-      <c r="CJ16" s="18" t="n">
+      <c r="CJ16" s="18">
         <v>4</v>
       </c>
       <c r="CK16" s="19"/>
-      <c r="CL16" s="19" t="n">
+      <c r="CL16" s="19">
         <v>4</v>
       </c>
       <c r="CM16" s="19"/>
       <c r="CN16" s="19"/>
       <c r="CO16" s="19"/>
-      <c r="CP16" s="19" t="n">
+      <c r="CP16" s="19">
         <v>4</v>
       </c>
       <c r="CQ16" s="19"/>
       <c r="CR16" s="19"/>
-      <c r="CS16" s="18" t="n">
+      <c r="CS16" s="18">
         <v>3</v>
       </c>
       <c r="CT16" s="19"/>
-      <c r="CU16" s="19" t="n">
+      <c r="CU16" s="19">
         <v>3</v>
       </c>
       <c r="CV16" s="19"/>
       <c r="CW16" s="19"/>
       <c r="CX16" s="19"/>
-      <c r="CY16" s="19" t="n">
+      <c r="CY16" s="19">
         <v>3</v>
       </c>
       <c r="CZ16" s="19"/>
@@ -4004,11 +4036,11 @@
       <c r="DO16" s="19"/>
       <c r="DP16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+    <row r="17" ht="15" customHeight="1">
+      <c t="s" r="A17" s="2">
         <v>83</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="18">
         <v>10</v>
       </c>
       <c r="C17" s="18"/>
@@ -4018,32 +4050,32 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19" t="n">
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
         <v>1</v>
       </c>
       <c r="L17" s="19"/>
-      <c r="M17" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="19" t="n">
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18">
+        <v>1</v>
+      </c>
+      <c r="P17" s="19">
         <v>1</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" s="19" t="n">
+      <c r="T17" s="19">
+        <v>1</v>
+      </c>
+      <c r="U17" s="19">
         <v>1</v>
       </c>
       <c r="V17" s="18"/>
@@ -4063,10 +4095,10 @@
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19"/>
       <c r="AL17" s="19"/>
-      <c r="AM17" s="18" t="n">
+      <c r="AM17" s="18">
         <v>4</v>
       </c>
-      <c r="AN17" s="19" t="n">
+      <c r="AN17" s="19">
         <v>4</v>
       </c>
       <c r="AO17" s="19"/>
@@ -4074,7 +4106,7 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
-      <c r="AT17" s="19" t="n">
+      <c r="AT17" s="19">
         <v>4</v>
       </c>
       <c r="AU17" s="19"/>
@@ -4118,32 +4150,32 @@
       <c r="CG17" s="19"/>
       <c r="CH17" s="19"/>
       <c r="CI17" s="19"/>
-      <c r="CJ17" s="18" t="n">
+      <c r="CJ17" s="18">
         <v>3</v>
       </c>
       <c r="CK17" s="19"/>
-      <c r="CL17" s="19" t="n">
+      <c r="CL17" s="19">
         <v>3</v>
       </c>
       <c r="CM17" s="19"/>
       <c r="CN17" s="19"/>
       <c r="CO17" s="19"/>
-      <c r="CP17" s="19" t="n">
+      <c r="CP17" s="19">
         <v>3</v>
       </c>
       <c r="CQ17" s="19"/>
       <c r="CR17" s="19"/>
-      <c r="CS17" s="18" t="n">
+      <c r="CS17" s="18">
         <v>1</v>
       </c>
       <c r="CT17" s="19"/>
       <c r="CU17" s="19"/>
       <c r="CV17" s="19"/>
-      <c r="CW17" s="19" t="n">
+      <c r="CW17" s="19">
         <v>1</v>
       </c>
       <c r="CX17" s="19"/>
-      <c r="CY17" s="19" t="n">
+      <c r="CY17" s="19">
         <v>1</v>
       </c>
       <c r="CZ17" s="19"/>
@@ -4164,11 +4196,11 @@
       <c r="DO17" s="19"/>
       <c r="DP17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" ht="15" customHeight="1">
+      <c t="s" r="A18" s="2">
         <v>84</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="18">
         <v>10</v>
       </c>
       <c r="C18" s="18"/>
@@ -4183,17 +4215,17 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="18" t="n">
+      <c r="O18" s="18">
         <v>1</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="19" t="n">
+      <c r="T18" s="19">
+        <v>1</v>
+      </c>
+      <c r="U18" s="19">
         <v>1</v>
       </c>
       <c r="V18" s="18"/>
@@ -4213,36 +4245,36 @@
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19"/>
       <c r="AL18" s="19"/>
-      <c r="AM18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN18" s="19" t="n">
+      <c r="AM18" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="19">
         <v>1</v>
       </c>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
-      <c r="AQ18" s="19" t="n">
+      <c r="AQ18" s="19">
         <v>1</v>
       </c>
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
-      <c r="AT18" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="19" t="n">
+      <c r="AT18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="19">
         <v>1</v>
       </c>
       <c r="AV18" s="18"/>
       <c r="AW18" s="19"/>
       <c r="AX18" s="19"/>
-      <c r="AY18" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="19" t="n">
+      <c r="AY18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="19">
         <v>1</v>
       </c>
       <c r="BA18" s="19"/>
-      <c r="BB18" s="19" t="n">
+      <c r="BB18" s="19">
         <v>1</v>
       </c>
       <c r="BC18" s="18"/>
@@ -4278,44 +4310,44 @@
       <c r="CG18" s="19"/>
       <c r="CH18" s="19"/>
       <c r="CI18" s="19"/>
-      <c r="CJ18" s="18" t="n">
+      <c r="CJ18" s="18">
         <v>4</v>
       </c>
       <c r="CK18" s="19"/>
-      <c r="CL18" s="19" t="n">
+      <c r="CL18" s="19">
         <v>4</v>
       </c>
       <c r="CM18" s="19"/>
       <c r="CN18" s="19"/>
       <c r="CO18" s="19"/>
-      <c r="CP18" s="19" t="n">
+      <c r="CP18" s="19">
         <v>4</v>
       </c>
       <c r="CQ18" s="19"/>
       <c r="CR18" s="19"/>
-      <c r="CS18" s="18" t="n">
+      <c r="CS18" s="18">
         <v>1</v>
       </c>
       <c r="CT18" s="19"/>
-      <c r="CU18" s="19" t="n">
+      <c r="CU18" s="19">
         <v>1</v>
       </c>
       <c r="CV18" s="19"/>
       <c r="CW18" s="19"/>
       <c r="CX18" s="19"/>
-      <c r="CY18" s="19" t="n">
+      <c r="CY18" s="19">
         <v>1</v>
       </c>
       <c r="CZ18" s="19"/>
       <c r="DA18" s="19"/>
-      <c r="DB18" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC18" s="19" t="n">
+      <c r="DB18" s="18">
+        <v>1</v>
+      </c>
+      <c r="DC18" s="19">
         <v>1</v>
       </c>
       <c r="DD18" s="19"/>
-      <c r="DE18" s="19" t="n">
+      <c r="DE18" s="19">
         <v>1</v>
       </c>
       <c r="DF18" s="18"/>
@@ -4330,23 +4362,23 @@
       <c r="DO18" s="19"/>
       <c r="DP18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" ht="15" customHeight="1">
+      <c t="s" r="A19" s="2">
         <v>85</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="18">
         <v>11</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="18">
         <v>1</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="19">
         <v>1</v>
       </c>
       <c r="G19" s="19"/>
-      <c r="H19" s="19" t="n">
+      <c r="H19" s="19">
         <v>1</v>
       </c>
       <c r="I19" s="19"/>
@@ -4372,18 +4404,18 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
-      <c r="AF19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG19" s="19" t="n">
+      <c r="AF19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="19">
         <v>2</v>
       </c>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="19" t="n">
+      <c r="AJ19" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="19">
         <v>2</v>
       </c>
       <c r="AL19" s="19"/>
@@ -4399,16 +4431,16 @@
       <c r="AV19" s="18"/>
       <c r="AW19" s="19"/>
       <c r="AX19" s="19"/>
-      <c r="AY19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="19" t="n">
+      <c r="AY19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="19">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="19">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="19">
         <v>2</v>
       </c>
       <c r="BC19" s="18"/>
@@ -4444,44 +4476,44 @@
       <c r="CG19" s="19"/>
       <c r="CH19" s="19"/>
       <c r="CI19" s="19"/>
-      <c r="CJ19" s="18" t="n">
+      <c r="CJ19" s="18">
         <v>3</v>
       </c>
       <c r="CK19" s="19"/>
-      <c r="CL19" s="19" t="n">
+      <c r="CL19" s="19">
         <v>3</v>
       </c>
       <c r="CM19" s="19"/>
       <c r="CN19" s="19"/>
       <c r="CO19" s="19"/>
-      <c r="CP19" s="19" t="n">
+      <c r="CP19" s="19">
         <v>3</v>
       </c>
       <c r="CQ19" s="19"/>
       <c r="CR19" s="19"/>
-      <c r="CS19" s="18" t="n">
+      <c r="CS19" s="18">
         <v>2</v>
       </c>
       <c r="CT19" s="19"/>
-      <c r="CU19" s="19" t="n">
+      <c r="CU19" s="19">
         <v>2</v>
       </c>
       <c r="CV19" s="19"/>
       <c r="CW19" s="19"/>
       <c r="CX19" s="19"/>
-      <c r="CY19" s="19" t="n">
+      <c r="CY19" s="19">
         <v>2</v>
       </c>
       <c r="CZ19" s="19"/>
       <c r="DA19" s="19"/>
-      <c r="DB19" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC19" s="19" t="n">
+      <c r="DB19" s="18">
+        <v>1</v>
+      </c>
+      <c r="DC19" s="19">
         <v>1</v>
       </c>
       <c r="DD19" s="19"/>
-      <c r="DE19" s="19" t="n">
+      <c r="DE19" s="19">
         <v>1</v>
       </c>
       <c r="DF19" s="18"/>
@@ -4496,11 +4528,11 @@
       <c r="DO19" s="19"/>
       <c r="DP19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="15" customHeight="1">
+      <c t="s" r="A20" s="2">
         <v>86</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="18">
         <v>29</v>
       </c>
       <c r="C20" s="18"/>
@@ -4522,24 +4554,24 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="19" t="n">
+      <c r="V20" s="18">
+        <v>1</v>
+      </c>
+      <c r="W20" s="19">
         <v>1</v>
       </c>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
-      <c r="AB20" s="19" t="n">
+      <c r="AB20" s="19">
         <v>1</v>
       </c>
       <c r="AC20" s="19"/>
-      <c r="AD20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="19" t="n">
+      <c r="AD20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="19">
         <v>1</v>
       </c>
       <c r="AF20" s="18"/>
@@ -4549,10 +4581,10 @@
       <c r="AJ20" s="19"/>
       <c r="AK20" s="19"/>
       <c r="AL20" s="19"/>
-      <c r="AM20" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN20" s="19" t="n">
+      <c r="AM20" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="19">
         <v>2</v>
       </c>
       <c r="AO20" s="19"/>
@@ -4560,7 +4592,7 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
-      <c r="AT20" s="19" t="n">
+      <c r="AT20" s="19">
         <v>2</v>
       </c>
       <c r="AU20" s="19"/>
@@ -4574,32 +4606,32 @@
       <c r="BC20" s="18"/>
       <c r="BD20" s="19"/>
       <c r="BE20" s="19"/>
-      <c r="BF20" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG20" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH20" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI20" s="18" t="n">
+      <c r="BF20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BG20" s="19">
+        <v>2</v>
+      </c>
+      <c r="BH20" s="19">
+        <v>2</v>
+      </c>
+      <c r="BI20" s="18">
         <v>6</v>
       </c>
-      <c r="BJ20" s="19" t="n">
+      <c r="BJ20" s="19">
         <v>4</v>
       </c>
-      <c r="BK20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="19" t="n">
+      <c r="BK20" s="19">
+        <v>1</v>
+      </c>
+      <c r="BL20" s="19">
         <v>1</v>
       </c>
       <c r="BM20" s="19"/>
-      <c r="BN20" s="19" t="n">
+      <c r="BN20" s="19">
         <v>5</v>
       </c>
-      <c r="BO20" s="19" t="n">
+      <c r="BO20" s="19">
         <v>1</v>
       </c>
       <c r="BP20" s="18"/>
@@ -4613,42 +4645,42 @@
       <c r="BX20" s="18"/>
       <c r="BY20" s="19"/>
       <c r="BZ20" s="19"/>
-      <c r="CA20" s="18" t="n">
+      <c r="CA20" s="18">
         <v>13</v>
       </c>
-      <c r="CB20" s="19" t="n">
+      <c r="CB20" s="19">
         <v>7</v>
       </c>
-      <c r="CC20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF20" s="19" t="n">
+      <c r="CC20" s="19">
+        <v>1</v>
+      </c>
+      <c r="CD20" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE20" s="19">
+        <v>1</v>
+      </c>
+      <c r="CF20" s="19">
         <v>3</v>
       </c>
-      <c r="CG20" s="19" t="n">
+      <c r="CG20" s="19">
         <v>10</v>
       </c>
-      <c r="CH20" s="19" t="n">
+      <c r="CH20" s="19">
         <v>3</v>
       </c>
       <c r="CI20" s="19"/>
-      <c r="CJ20" s="18" t="n">
+      <c r="CJ20" s="18">
         <v>5</v>
       </c>
       <c r="CK20" s="19"/>
-      <c r="CL20" s="19" t="n">
+      <c r="CL20" s="19">
         <v>5</v>
       </c>
       <c r="CM20" s="19"/>
       <c r="CN20" s="19"/>
       <c r="CO20" s="19"/>
-      <c r="CP20" s="19" t="n">
+      <c r="CP20" s="19">
         <v>5</v>
       </c>
       <c r="CQ20" s="19"/>
@@ -4678,11 +4710,11 @@
       <c r="DO20" s="19"/>
       <c r="DP20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="15" customHeight="1">
+      <c t="s" r="A21" s="2">
         <v>87</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="18">
         <v>24</v>
       </c>
       <c r="C21" s="18"/>
@@ -4697,17 +4729,17 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="18" t="n">
+      <c r="O21" s="18">
         <v>1</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
-      <c r="T21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="19" t="n">
+      <c r="T21" s="19">
+        <v>1</v>
+      </c>
+      <c r="U21" s="19">
         <v>1</v>
       </c>
       <c r="V21" s="18"/>
@@ -4746,13 +4778,13 @@
       <c r="BC21" s="18"/>
       <c r="BD21" s="19"/>
       <c r="BE21" s="19"/>
-      <c r="BF21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG21" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH21" s="19" t="n">
+      <c r="BF21" s="18">
+        <v>2</v>
+      </c>
+      <c r="BG21" s="19">
+        <v>2</v>
+      </c>
+      <c r="BH21" s="19">
         <v>2</v>
       </c>
       <c r="BI21" s="18"/>
@@ -4773,59 +4805,59 @@
       <c r="BX21" s="18"/>
       <c r="BY21" s="19"/>
       <c r="BZ21" s="19"/>
-      <c r="CA21" s="18" t="n">
+      <c r="CA21" s="18">
         <v>13</v>
       </c>
-      <c r="CB21" s="19" t="n">
+      <c r="CB21" s="19">
         <v>7</v>
       </c>
-      <c r="CC21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF21" s="19" t="n">
+      <c r="CC21" s="19">
+        <v>1</v>
+      </c>
+      <c r="CD21" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE21" s="19">
+        <v>1</v>
+      </c>
+      <c r="CF21" s="19">
         <v>3</v>
       </c>
-      <c r="CG21" s="19" t="n">
+      <c r="CG21" s="19">
         <v>9</v>
       </c>
-      <c r="CH21" s="19" t="n">
+      <c r="CH21" s="19">
         <v>3</v>
       </c>
-      <c r="CI21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ21" s="18" t="n">
+      <c r="CI21" s="19">
+        <v>1</v>
+      </c>
+      <c r="CJ21" s="18">
         <v>7</v>
       </c>
       <c r="CK21" s="19"/>
-      <c r="CL21" s="19" t="n">
+      <c r="CL21" s="19">
         <v>7</v>
       </c>
       <c r="CM21" s="19"/>
       <c r="CN21" s="19"/>
       <c r="CO21" s="19"/>
-      <c r="CP21" s="19" t="n">
+      <c r="CP21" s="19">
         <v>7</v>
       </c>
       <c r="CQ21" s="19"/>
       <c r="CR21" s="19"/>
-      <c r="CS21" s="18" t="n">
+      <c r="CS21" s="18">
         <v>1</v>
       </c>
       <c r="CT21" s="19"/>
-      <c r="CU21" s="19" t="n">
+      <c r="CU21" s="19">
         <v>1</v>
       </c>
       <c r="CV21" s="19"/>
       <c r="CW21" s="19"/>
       <c r="CX21" s="19"/>
-      <c r="CY21" s="19" t="n">
+      <c r="CY21" s="19">
         <v>1</v>
       </c>
       <c r="CZ21" s="19"/>
@@ -4846,11 +4878,11 @@
       <c r="DO21" s="19"/>
       <c r="DP21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="15" customHeight="1">
+      <c t="s" r="A22" s="2">
         <v>88</v>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="18">
         <v>7</v>
       </c>
       <c r="C22" s="18"/>
@@ -4872,24 +4904,24 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="18" t="n">
+      <c r="V22" s="18">
         <v>1</v>
       </c>
       <c r="W22" s="19"/>
-      <c r="X22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="19" t="n">
+      <c r="X22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="19">
         <v>1</v>
       </c>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
-      <c r="AD22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="19" t="n">
+      <c r="AD22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="19">
         <v>1</v>
       </c>
       <c r="AF22" s="18"/>
@@ -4899,10 +4931,10 @@
       <c r="AJ22" s="19"/>
       <c r="AK22" s="19"/>
       <c r="AL22" s="19"/>
-      <c r="AM22" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="19" t="n">
+      <c r="AM22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="19">
         <v>1</v>
       </c>
       <c r="AO22" s="19"/>
@@ -4910,7 +4942,7 @@
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
       <c r="AS22" s="19"/>
-      <c r="AT22" s="19" t="n">
+      <c r="AT22" s="19">
         <v>1</v>
       </c>
       <c r="AU22" s="19"/>
@@ -4954,36 +4986,36 @@
       <c r="CG22" s="19"/>
       <c r="CH22" s="19"/>
       <c r="CI22" s="19"/>
-      <c r="CJ22" s="18" t="n">
+      <c r="CJ22" s="18">
         <v>2</v>
       </c>
       <c r="CK22" s="19"/>
-      <c r="CL22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM22" s="19" t="n">
+      <c r="CL22" s="19">
+        <v>1</v>
+      </c>
+      <c r="CM22" s="19">
         <v>1</v>
       </c>
       <c r="CN22" s="19"/>
       <c r="CO22" s="19"/>
-      <c r="CP22" s="19" t="n">
+      <c r="CP22" s="19">
         <v>1</v>
       </c>
       <c r="CQ22" s="19"/>
-      <c r="CR22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS22" s="18" t="n">
+      <c r="CR22" s="19">
+        <v>1</v>
+      </c>
+      <c r="CS22" s="18">
         <v>3</v>
       </c>
       <c r="CT22" s="19"/>
-      <c r="CU22" s="19" t="n">
+      <c r="CU22" s="19">
         <v>3</v>
       </c>
       <c r="CV22" s="19"/>
       <c r="CW22" s="19"/>
       <c r="CX22" s="19"/>
-      <c r="CY22" s="19" t="n">
+      <c r="CY22" s="19">
         <v>3</v>
       </c>
       <c r="CZ22" s="19"/>
@@ -5004,11 +5036,11 @@
       <c r="DO22" s="19"/>
       <c r="DP22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="15" customHeight="1">
+      <c t="s" r="A23" s="2">
         <v>89</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="18">
         <v>12</v>
       </c>
       <c r="C23" s="18"/>
@@ -5018,34 +5050,34 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="19" t="n">
+      <c r="J23" s="18">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19">
         <v>1</v>
       </c>
       <c r="L23" s="19"/>
-      <c r="M23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="18" t="n">
+      <c r="M23" s="19">
+        <v>1</v>
+      </c>
+      <c r="N23" s="19">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18">
         <v>1</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" s="19" t="n">
+      <c r="R23" s="19">
+        <v>1</v>
+      </c>
+      <c r="S23" s="19">
+        <v>1</v>
+      </c>
+      <c r="T23" s="19">
+        <v>1</v>
+      </c>
+      <c r="U23" s="19">
         <v>1</v>
       </c>
       <c r="V23" s="18"/>
@@ -5065,44 +5097,44 @@
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="19"/>
-      <c r="AM23" s="18" t="n">
+      <c r="AM23" s="18">
         <v>1</v>
       </c>
       <c r="AN23" s="19"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
-      <c r="AQ23" s="19" t="n">
+      <c r="AQ23" s="19">
         <v>1</v>
       </c>
       <c r="AR23" s="19"/>
       <c r="AS23" s="19"/>
       <c r="AT23" s="19"/>
-      <c r="AU23" s="19" t="n">
+      <c r="AU23" s="19">
         <v>1</v>
       </c>
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
       <c r="AX23" s="19"/>
-      <c r="AY23" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="19" t="n">
+      <c r="AY23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="19">
         <v>1</v>
       </c>
       <c r="BA23" s="19"/>
-      <c r="BB23" s="19" t="n">
+      <c r="BB23" s="19">
         <v>1</v>
       </c>
       <c r="BC23" s="18"/>
       <c r="BD23" s="19"/>
       <c r="BE23" s="19"/>
-      <c r="BF23" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="19" t="n">
+      <c r="BF23" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="19">
         <v>1</v>
       </c>
       <c r="BI23" s="18"/>
@@ -5112,22 +5144,22 @@
       <c r="BM23" s="19"/>
       <c r="BN23" s="19"/>
       <c r="BO23" s="19"/>
-      <c r="BP23" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR23" s="19" t="n">
+      <c r="BP23" s="18">
+        <v>2</v>
+      </c>
+      <c r="BQ23" s="19">
+        <v>1</v>
+      </c>
+      <c r="BR23" s="19">
         <v>1</v>
       </c>
       <c r="BS23" s="19"/>
       <c r="BT23" s="19"/>
-      <c r="BU23" s="19" t="n">
+      <c r="BU23" s="19">
         <v>1</v>
       </c>
       <c r="BV23" s="19"/>
-      <c r="BW23" s="19" t="n">
+      <c r="BW23" s="19">
         <v>1</v>
       </c>
       <c r="BX23" s="18"/>
@@ -5142,44 +5174,44 @@
       <c r="CG23" s="19"/>
       <c r="CH23" s="19"/>
       <c r="CI23" s="19"/>
-      <c r="CJ23" s="18" t="n">
+      <c r="CJ23" s="18">
         <v>2</v>
       </c>
       <c r="CK23" s="19"/>
-      <c r="CL23" s="19" t="n">
+      <c r="CL23" s="19">
         <v>2</v>
       </c>
       <c r="CM23" s="19"/>
       <c r="CN23" s="19"/>
       <c r="CO23" s="19"/>
-      <c r="CP23" s="19" t="n">
+      <c r="CP23" s="19">
         <v>2</v>
       </c>
       <c r="CQ23" s="19"/>
       <c r="CR23" s="19"/>
-      <c r="CS23" s="18" t="n">
+      <c r="CS23" s="18">
         <v>1</v>
       </c>
       <c r="CT23" s="19"/>
-      <c r="CU23" s="19" t="n">
+      <c r="CU23" s="19">
         <v>1</v>
       </c>
       <c r="CV23" s="19"/>
       <c r="CW23" s="19"/>
       <c r="CX23" s="19"/>
-      <c r="CY23" s="19" t="n">
+      <c r="CY23" s="19">
         <v>1</v>
       </c>
       <c r="CZ23" s="19"/>
       <c r="DA23" s="19"/>
-      <c r="DB23" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC23" s="19" t="n">
+      <c r="DB23" s="18">
+        <v>2</v>
+      </c>
+      <c r="DC23" s="19">
         <v>2</v>
       </c>
       <c r="DD23" s="19"/>
-      <c r="DE23" s="19" t="n">
+      <c r="DE23" s="19">
         <v>2</v>
       </c>
       <c r="DF23" s="18"/>
@@ -5194,23 +5226,23 @@
       <c r="DO23" s="19"/>
       <c r="DP23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="15" customHeight="1">
+      <c t="s" r="A24" s="2">
         <v>90</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B24" s="18">
         <v>16</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="18">
         <v>1</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="19" t="n">
+      <c r="H24" s="19">
         <v>1</v>
       </c>
       <c r="I24" s="19"/>
@@ -5236,49 +5268,49 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
-      <c r="AF24" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="19" t="n">
+      <c r="AF24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="19">
         <v>1</v>
       </c>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="19" t="n">
+      <c r="AJ24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="19">
         <v>1</v>
       </c>
       <c r="AL24" s="19"/>
-      <c r="AM24" s="18" t="n">
+      <c r="AM24" s="18">
         <v>1</v>
       </c>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
-      <c r="AR24" s="19" t="n">
+      <c r="AR24" s="19">
         <v>1</v>
       </c>
       <c r="AS24" s="19"/>
       <c r="AT24" s="19"/>
-      <c r="AU24" s="19" t="n">
+      <c r="AU24" s="19">
         <v>1</v>
       </c>
       <c r="AV24" s="18"/>
       <c r="AW24" s="19"/>
       <c r="AX24" s="19"/>
-      <c r="AY24" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA24" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB24" s="19" t="n">
+      <c r="AY24" s="18">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="19">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="19">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="19">
         <v>2</v>
       </c>
       <c r="BC24" s="18"/>
@@ -5323,29 +5355,29 @@
       <c r="CP24" s="19"/>
       <c r="CQ24" s="19"/>
       <c r="CR24" s="19"/>
-      <c r="CS24" s="18" t="n">
+      <c r="CS24" s="18">
         <v>2</v>
       </c>
       <c r="CT24" s="19"/>
-      <c r="CU24" s="19" t="n">
+      <c r="CU24" s="19">
         <v>2</v>
       </c>
       <c r="CV24" s="19"/>
       <c r="CW24" s="19"/>
       <c r="CX24" s="19"/>
-      <c r="CY24" s="19" t="n">
+      <c r="CY24" s="19">
         <v>2</v>
       </c>
       <c r="CZ24" s="19"/>
       <c r="DA24" s="19"/>
-      <c r="DB24" s="18" t="n">
+      <c r="DB24" s="18">
         <v>9</v>
       </c>
-      <c r="DC24" s="19" t="n">
+      <c r="DC24" s="19">
         <v>9</v>
       </c>
       <c r="DD24" s="19"/>
-      <c r="DE24" s="19" t="n">
+      <c r="DE24" s="19">
         <v>9</v>
       </c>
       <c r="DF24" s="18"/>
@@ -5360,11 +5392,11 @@
       <c r="DO24" s="19"/>
       <c r="DP24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="25" ht="15" customHeight="1">
+      <c t="s" r="A25" s="2">
         <v>91</v>
       </c>
-      <c r="B25" s="18" t="n">
+      <c r="B25" s="18">
         <v>12</v>
       </c>
       <c r="C25" s="18"/>
@@ -5403,34 +5435,34 @@
       <c r="AJ25" s="19"/>
       <c r="AK25" s="19"/>
       <c r="AL25" s="19"/>
-      <c r="AM25" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN25" s="19" t="n">
+      <c r="AM25" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="19">
         <v>1</v>
       </c>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
-      <c r="AS25" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="19" t="n">
+      <c r="AS25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="19">
         <v>2</v>
       </c>
       <c r="AU25" s="19"/>
       <c r="AV25" s="18"/>
       <c r="AW25" s="19"/>
       <c r="AX25" s="19"/>
-      <c r="AY25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="19" t="n">
+      <c r="AY25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="19">
         <v>1</v>
       </c>
       <c r="BA25" s="19"/>
-      <c r="BB25" s="19" t="n">
+      <c r="BB25" s="19">
         <v>1</v>
       </c>
       <c r="BC25" s="18"/>
@@ -5466,17 +5498,17 @@
       <c r="CG25" s="19"/>
       <c r="CH25" s="19"/>
       <c r="CI25" s="19"/>
-      <c r="CJ25" s="18" t="n">
+      <c r="CJ25" s="18">
         <v>8</v>
       </c>
       <c r="CK25" s="19"/>
-      <c r="CL25" s="19" t="n">
+      <c r="CL25" s="19">
         <v>8</v>
       </c>
       <c r="CM25" s="19"/>
       <c r="CN25" s="19"/>
       <c r="CO25" s="19"/>
-      <c r="CP25" s="19" t="n">
+      <c r="CP25" s="19">
         <v>8</v>
       </c>
       <c r="CQ25" s="19"/>
@@ -5490,14 +5522,14 @@
       <c r="CY25" s="19"/>
       <c r="CZ25" s="19"/>
       <c r="DA25" s="19"/>
-      <c r="DB25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC25" s="19" t="n">
+      <c r="DB25" s="18">
+        <v>1</v>
+      </c>
+      <c r="DC25" s="19">
         <v>1</v>
       </c>
       <c r="DD25" s="19"/>
-      <c r="DE25" s="19" t="n">
+      <c r="DE25" s="19">
         <v>1</v>
       </c>
       <c r="DF25" s="18"/>
@@ -5512,26 +5544,26 @@
       <c r="DO25" s="19"/>
       <c r="DP25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="15" customHeight="1">
+      <c t="s" r="A26" s="2">
         <v>92</v>
       </c>
-      <c r="B26" s="18" t="n">
+      <c r="B26" s="18">
         <v>15</v>
       </c>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="18">
         <v>2</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="19" t="n">
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
         <v>1</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="19" t="n">
+      <c r="I26" s="19">
         <v>2</v>
       </c>
       <c r="J26" s="18"/>
@@ -5539,19 +5571,19 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="18" t="n">
+      <c r="O26" s="18">
         <v>1</v>
       </c>
       <c r="P26" s="19"/>
-      <c r="Q26" s="19" t="n">
+      <c r="Q26" s="19">
         <v>1</v>
       </c>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" s="19" t="n">
+      <c r="T26" s="19">
+        <v>1</v>
+      </c>
+      <c r="U26" s="19">
         <v>1</v>
       </c>
       <c r="V26" s="18"/>
@@ -5571,10 +5603,10 @@
       <c r="AJ26" s="19"/>
       <c r="AK26" s="19"/>
       <c r="AL26" s="19"/>
-      <c r="AM26" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN26" s="19" t="n">
+      <c r="AM26" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="19">
         <v>2</v>
       </c>
       <c r="AO26" s="19"/>
@@ -5582,30 +5614,30 @@
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
       <c r="AS26" s="19"/>
-      <c r="AT26" s="19" t="n">
+      <c r="AT26" s="19">
         <v>2</v>
       </c>
       <c r="AU26" s="19"/>
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
       <c r="AX26" s="19"/>
-      <c r="AY26" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" s="19" t="n">
+      <c r="AY26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="19">
         <v>1</v>
       </c>
       <c r="BA26" s="19"/>
-      <c r="BB26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="19" t="n">
+      <c r="BB26" s="19">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="18">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="19">
         <v>1</v>
       </c>
       <c r="BF26" s="18"/>
@@ -5638,34 +5670,34 @@
       <c r="CG26" s="19"/>
       <c r="CH26" s="19"/>
       <c r="CI26" s="19"/>
-      <c r="CJ26" s="18" t="n">
+      <c r="CJ26" s="18">
         <v>4</v>
       </c>
       <c r="CK26" s="19"/>
-      <c r="CL26" s="19" t="n">
+      <c r="CL26" s="19">
         <v>4</v>
       </c>
       <c r="CM26" s="19"/>
       <c r="CN26" s="19"/>
       <c r="CO26" s="19"/>
-      <c r="CP26" s="19" t="n">
+      <c r="CP26" s="19">
         <v>4</v>
       </c>
       <c r="CQ26" s="19"/>
       <c r="CR26" s="19"/>
-      <c r="CS26" s="18" t="n">
+      <c r="CS26" s="18">
         <v>2</v>
       </c>
       <c r="CT26" s="19"/>
-      <c r="CU26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV26" s="19" t="n">
+      <c r="CU26" s="19">
+        <v>1</v>
+      </c>
+      <c r="CV26" s="19">
         <v>1</v>
       </c>
       <c r="CW26" s="19"/>
       <c r="CX26" s="19"/>
-      <c r="CY26" s="19" t="n">
+      <c r="CY26" s="19">
         <v>2</v>
       </c>
       <c r="CZ26" s="19"/>
@@ -5674,25 +5706,25 @@
       <c r="DC26" s="19"/>
       <c r="DD26" s="19"/>
       <c r="DE26" s="19"/>
-      <c r="DF26" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DG26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL26" s="19" t="n">
+      <c r="DF26" s="18">
+        <v>2</v>
+      </c>
+      <c r="DG26" s="19">
+        <v>1</v>
+      </c>
+      <c r="DH26" s="19">
+        <v>1</v>
+      </c>
+      <c r="DI26" s="19">
+        <v>1</v>
+      </c>
+      <c r="DJ26" s="19">
+        <v>1</v>
+      </c>
+      <c r="DK26" s="19">
+        <v>1</v>
+      </c>
+      <c r="DL26" s="19">
         <v>1</v>
       </c>
       <c r="DM26" s="18"/>
@@ -5700,11 +5732,11 @@
       <c r="DO26" s="19"/>
       <c r="DP26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="27" ht="15" customHeight="1">
+      <c t="s" r="A27" s="2">
         <v>93</v>
       </c>
-      <c r="B27" s="18" t="n">
+      <c r="B27" s="18">
         <v>19</v>
       </c>
       <c r="C27" s="18"/>
@@ -5762,13 +5794,13 @@
       <c r="BC27" s="18"/>
       <c r="BD27" s="19"/>
       <c r="BE27" s="19"/>
-      <c r="BF27" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG27" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="19" t="n">
+      <c r="BF27" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="19">
         <v>1</v>
       </c>
       <c r="BI27" s="18"/>
@@ -5789,57 +5821,57 @@
       <c r="BX27" s="18"/>
       <c r="BY27" s="19"/>
       <c r="BZ27" s="19"/>
-      <c r="CA27" s="18" t="n">
+      <c r="CA27" s="18">
         <v>13</v>
       </c>
-      <c r="CB27" s="19" t="n">
+      <c r="CB27" s="19">
         <v>7</v>
       </c>
-      <c r="CC27" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD27" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE27" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF27" s="19" t="n">
+      <c r="CC27" s="19">
+        <v>1</v>
+      </c>
+      <c r="CD27" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE27" s="19">
+        <v>1</v>
+      </c>
+      <c r="CF27" s="19">
         <v>3</v>
       </c>
-      <c r="CG27" s="19" t="n">
+      <c r="CG27" s="19">
         <v>10</v>
       </c>
-      <c r="CH27" s="19" t="n">
+      <c r="CH27" s="19">
         <v>3</v>
       </c>
       <c r="CI27" s="19"/>
-      <c r="CJ27" s="18" t="n">
+      <c r="CJ27" s="18">
         <v>3</v>
       </c>
       <c r="CK27" s="19"/>
-      <c r="CL27" s="19" t="n">
+      <c r="CL27" s="19">
         <v>3</v>
       </c>
       <c r="CM27" s="19"/>
       <c r="CN27" s="19"/>
       <c r="CO27" s="19"/>
-      <c r="CP27" s="19" t="n">
+      <c r="CP27" s="19">
         <v>3</v>
       </c>
       <c r="CQ27" s="19"/>
       <c r="CR27" s="19"/>
-      <c r="CS27" s="18" t="n">
+      <c r="CS27" s="18">
         <v>1</v>
       </c>
       <c r="CT27" s="19"/>
-      <c r="CU27" s="19" t="n">
+      <c r="CU27" s="19">
         <v>1</v>
       </c>
       <c r="CV27" s="19"/>
       <c r="CW27" s="19"/>
       <c r="CX27" s="19"/>
-      <c r="CY27" s="19" t="n">
+      <c r="CY27" s="19">
         <v>1</v>
       </c>
       <c r="CZ27" s="19"/>
@@ -5848,19 +5880,19 @@
       <c r="DC27" s="19"/>
       <c r="DD27" s="19"/>
       <c r="DE27" s="19"/>
-      <c r="DF27" s="18" t="n">
+      <c r="DF27" s="18">
         <v>1</v>
       </c>
       <c r="DG27" s="19"/>
-      <c r="DH27" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI27" s="19" t="n">
+      <c r="DH27" s="19">
+        <v>1</v>
+      </c>
+      <c r="DI27" s="19">
         <v>1</v>
       </c>
       <c r="DJ27" s="19"/>
       <c r="DK27" s="19"/>
-      <c r="DL27" s="19" t="n">
+      <c r="DL27" s="19">
         <v>1</v>
       </c>
       <c r="DM27" s="18"/>
@@ -6009,12 +6041,10 @@
     <mergeCell ref="DO2:DO3"/>
     <mergeCell ref="DP2:DP3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:DP27" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>